--- a/bug.report.xlsx
+++ b/bug.report.xlsx
@@ -39,9 +39,6 @@
     <t>Attachment</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
@@ -533,11 +530,6 @@
 </t>
     </r>
     <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
       <t xml:space="preserve">3. </t>
     </r>
     <r>
@@ -546,6 +538,26 @@
         <color theme="1" tint="0"/>
         <sz val="10"/>
       </rPr>
+      <t>pay attention to I/O filed</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve">4. </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
       <t>click [Выбор]</t>
     </r>
     <r>
@@ -558,19 +570,19 @@
         <color theme="1" tint="0"/>
         <sz val="10"/>
       </rPr>
-      <t>4. click [Инженерный]</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve">5. </t>
+      <t>5. click [Инженерный]</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve">6. </t>
     </r>
     <r>
       <rPr>
@@ -587,6 +599,13 @@
 </t>
     </r>
     <r>
+      <t>7. pay attention to I/O filed</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
       <t xml:space="preserve">
 </t>
     </r>
@@ -779,31 +798,59 @@
         <color theme="1" tint="0"/>
         <sz val="10"/>
       </rPr>
-      <t>3. click [Выбор]</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>4. click [Инженерный]</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve">5. </t>
+      <t xml:space="preserve">3. </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>pay attention to I/O filed</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve">4. </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>click [Выбор]</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>5. click [Инженерный]</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve">6. </t>
     </r>
     <r>
       <rPr>
@@ -820,6 +867,14 @@
 </t>
     </r>
     <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>7. pay attention to I/O filed</t>
+    </r>
+    <r>
       <t xml:space="preserve">
 </t>
     </r>
@@ -873,7 +928,7 @@
         <color theme="1" tint="0"/>
         <sz val="10"/>
       </rPr>
-      <t>After clicking [8] the button disappears from numeric panel. There is an empty space instead of button '8'.</t>
+      <t>After clicking '8' the button disappears from numeric panel. There is an empty space instead of button '8'.</t>
     </r>
     <r>
       <t xml:space="preserve">
@@ -917,7 +972,7 @@
         <color theme="1" tint="0"/>
         <sz val="10"/>
       </rPr>
-      <t xml:space="preserve"> is no button [8] in the calculator number panel, app is closed</t>
+      <t xml:space="preserve"> is no button '8' in the calculator number panel, app is closed</t>
     </r>
     <r>
       <t xml:space="preserve">
@@ -952,7 +1007,7 @@
         <color theme="1" tint="0"/>
         <sz val="10"/>
       </rPr>
-      <t>here is  button [8] in the calculator number panel</t>
+      <t>here is  button '8' in the calculator number panel</t>
     </r>
     <r>
       <t xml:space="preserve">
@@ -1007,55 +1062,62 @@
 </t>
     </r>
     <r>
-      <t>3. close the app</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>4. open the app by double-clicking</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>5. click [Выбор]</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>6. click [Инженерный]</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve">7. </t>
+      <t>3. pay attention to numeric panel</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t>4. close the app</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>5. open the app by double-clicking</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>6. click [Выбор]</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>7. click [Инженерный]</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve">8. </t>
     </r>
     <r>
       <rPr>
@@ -1072,6 +1134,18 @@
 </t>
     </r>
     <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>9. pay attention to numeric panel</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
       <t xml:space="preserve">
 </t>
     </r>
@@ -1545,31 +1619,59 @@
         <color theme="1" tint="0"/>
         <sz val="10"/>
       </rPr>
-      <t>3. click [Выбор]</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>4. click [Инженерный]</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve">5. </t>
+      <t xml:space="preserve">3. </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>pay attention to I/O filed</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve">4. </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>click [Выбор]</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>5. click [Инженерный]</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve">6. </t>
     </r>
     <r>
       <rPr>
@@ -1586,6 +1688,14 @@
 </t>
     </r>
     <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>7. pay attention to I/O filed</t>
+    </r>
+    <r>
       <t xml:space="preserve">
 </t>
     </r>
@@ -2270,12 +2380,26 @@
 </t>
     </r>
     <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve">6. </t>
+      <t>6. pay attention to result</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t>7. click [C]</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve">8. </t>
     </r>
     <r>
       <rPr>
@@ -2295,19 +2419,23 @@
         <color theme="1" tint="0"/>
         <sz val="10"/>
       </rPr>
-      <t xml:space="preserve">7. click [Инженерный] </t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>8. do the steps 2-5</t>
+      <t xml:space="preserve">9. click [Инженерный] </t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>10. do the steps 2-6</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
     </r>
     <r>
       <t xml:space="preserve">
@@ -2430,7 +2558,7 @@
   </si>
   <si>
     <r>
-      <t>1.open the app by double-clicking</t>
+      <t>1. open the app by double-clicking</t>
     </r>
     <r>
       <t xml:space="preserve">
@@ -2444,14 +2572,14 @@
         <color rgb="202020" tint="0"/>
         <sz val="10"/>
       </rPr>
-      <t>2.click [7]</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>3.</t>
+      <t>2. click [7]</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">3. </t>
     </r>
     <r>
       <rPr>
@@ -2468,7 +2596,7 @@
 </t>
     </r>
     <r>
-      <t>4.</t>
+      <t xml:space="preserve">4. </t>
     </r>
     <r>
       <rPr>
@@ -2485,7 +2613,7 @@
 </t>
     </r>
     <r>
-      <t>5.</t>
+      <t xml:space="preserve">5. </t>
     </r>
     <r>
       <rPr>
@@ -2502,12 +2630,26 @@
 </t>
     </r>
     <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>6.</t>
+      <t>6. pay attention to result</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t>7. click [C]</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve">8. </t>
     </r>
     <r>
       <rPr>
@@ -2527,19 +2669,23 @@
         <color theme="1" tint="0"/>
         <sz val="10"/>
       </rPr>
-      <t xml:space="preserve">7.click [Инженерный] </t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>8.do the steps 2-5</t>
+      <t xml:space="preserve">9. click [Инженерный] </t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>10. do the steps 2-6</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
     </r>
     <r>
       <t xml:space="preserve">
@@ -2691,7 +2837,7 @@
   </si>
   <si>
     <r>
-      <t>1.</t>
+      <t xml:space="preserve">1. </t>
     </r>
     <r>
       <rPr>
@@ -2708,7 +2854,7 @@
 </t>
     </r>
     <r>
-      <t>2.</t>
+      <t xml:space="preserve">2. </t>
     </r>
     <r>
       <rPr>
@@ -2725,7 +2871,7 @@
 </t>
     </r>
     <r>
-      <t>3.pay attention to button for squaring</t>
+      <t>3. pay attention to button for squaring</t>
     </r>
   </si>
   <si>
@@ -2925,7 +3071,7 @@
         <color theme="1" tint="0"/>
         <sz val="10"/>
       </rPr>
-      <t>1.</t>
+      <t xml:space="preserve">1. </t>
     </r>
     <r>
       <rPr>
@@ -2947,7 +3093,7 @@
         <color theme="1" tint="0"/>
         <sz val="10"/>
       </rPr>
-      <t>2.</t>
+      <t xml:space="preserve">2. </t>
     </r>
     <r>
       <rPr>
@@ -2969,7 +3115,7 @@
         <color theme="1" tint="0"/>
         <sz val="10"/>
       </rPr>
-      <t>3.pay attention to button for root extraction</t>
+      <t>3. pay attention to button for root extraction</t>
     </r>
   </si>
   <si>
@@ -3122,7 +3268,7 @@
         <color theme="1" tint="0"/>
         <sz val="10"/>
       </rPr>
-      <t>1.</t>
+      <t xml:space="preserve">1. </t>
     </r>
     <r>
       <rPr>
@@ -3146,19 +3292,19 @@
         <color rgb="202020" tint="0"/>
         <sz val="10"/>
       </rPr>
-      <t>2.click [Выбор]</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>3.</t>
+      <t>2. click [Выбор]</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve">3. </t>
     </r>
     <r>
       <rPr>
@@ -3180,7 +3326,7 @@
         <color theme="1" tint="0"/>
         <sz val="10"/>
       </rPr>
-      <t>4.</t>
+      <t xml:space="preserve">4. </t>
     </r>
     <r>
       <rPr>
@@ -3202,7 +3348,7 @@
         <color theme="1" tint="0"/>
         <sz val="10"/>
       </rPr>
-      <t>5.</t>
+      <t xml:space="preserve">5. </t>
     </r>
     <r>
       <rPr>
@@ -3224,7 +3370,7 @@
         <color theme="1" tint="0"/>
         <sz val="10"/>
       </rPr>
-      <t>6.</t>
+      <t xml:space="preserve">6. </t>
     </r>
     <r>
       <rPr>
@@ -3256,1748 +3402,9 @@
       </rPr>
       <t>√]</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">the maximum number of characters for input </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve"> is exceeded</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>the maximum number of characters for input is exceeded</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <t>more than 20 characters can be entered</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>Actual resu</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve">lt: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="false"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>possible to enter more than 20 symbols,</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve">there is 111111111111111111111 </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve">in I/O field </t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>Expected result:</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve"> possible to enter only 20 symbols, there is </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve">11111111111111111111 </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve">in I/O field </t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>Environment: win 10</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1. open the app</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>2. enter 21 characters: click [111111111111111111111]</t>
-    </r>
-  </si>
-  <si>
-    <t>no user guide after clicking О программе</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>there is no user guide after clicking "О программе"</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>Actual resu</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>lt:</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve">Expected result: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>user guide appears</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>Environment: win 10</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1. open the app</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>2. click [О программе]</t>
-    </r>
-  </si>
-  <si>
-    <t>changing panel color in scientific mode</t>
-  </si>
-  <si>
-    <r>
-      <t>part of the calculator panel with buttons for scientific mode changes color from gray to green and one button is added</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>Actual resu</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve">lt: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve">the color of the panel </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>with buttons for scientific mode</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve"> is green</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="false"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>with 3 buttons on it</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve">Expected result: </t>
-    </r>
-    <r>
-      <t xml:space="preserve">the color of the panel </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve">with buttons for scientific mode </t>
-    </r>
-    <r>
-      <t>does not change, it is gray with 2 buttons o</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve">n </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="false"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>it (for</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="false"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="false"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>oot extraction and squaring)</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>Environment: win 10</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>1. open the app</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>2. click [О программе]</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>3. click [Выбор]</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>4. click [Инженерный]</t>
-    </r>
-  </si>
-  <si>
-    <t>multiply button is misaligned</t>
-  </si>
-  <si>
-    <r>
-      <t>multiply button is misaligned</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>Actual resu</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve">lt: </t>
-    </r>
-    <r>
-      <t>button [*]  is not aligned</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve">Expected result: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve">button [*]  is </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="false"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>on the same row as [/] and the same column as [-]</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>Environment: win 10</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1.open the app</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>2.pay attention to button [*]</t>
-    </r>
-  </si>
-  <si>
-    <t>there is no way to enter numbers from the keyboard</t>
-  </si>
-  <si>
-    <r>
-      <t>there is no possibility to enter numbers from the keyboard</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>Actual resu</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve">lt: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="false"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>no</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="false"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="false"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>hing happens</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve">Expected result: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="false"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>ther</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="false"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>e</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="false"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve"> is "1" in I/O field</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>Environment: win 10</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1. open the app</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>2. press [1] on your computer keyboard</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <t>major</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>unnecessary  message appears when you click between the buttons</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">when miss a number and сlick the number pad, unnecessary message "Че жмешь куда ни попадя" </t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>Actual resu</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve">lt: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="false"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve"> message </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve">"Че жмешь куда ни попадя", </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="false"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve">the app </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="false"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="false"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>s closed</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve">Expected result: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="false"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>no</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="false"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>th</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="false"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>ing happens</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>Environment: win 10</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>1. open the app</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>2. click any place on number panel between number buttons</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>3. click [ok] on the message</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>4. c</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>lick any place on number panel between number buttons again</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>5. click [ok] on the message</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>6. cli</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>ck any place on number panel between number buttons</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>unnecessary  message appears when you click the buttons [+], [-], [/], [*], [=]</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve"> when you clicking the buttons [+], [-], [/], [*], [=] with empty field or click this buttons twice at any time the message "is not a valid floating point value" appears</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>Actual resu</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve">lt: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>"is not a valid floating point value"</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve">Expected result: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="false"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>no</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="false"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>th</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="false"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>ing happens</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>Environment: win 10</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1. open the app</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>2. click [=], or [+], or[-], or[*], or [/]</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>3. click [5]</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>4. click twice [</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>=], or [+], or[-], or[*], or [/]</t>
-    </r>
-  </si>
-  <si>
-    <t>wrong result after division negative number by negative number</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve"> when you divide negative number by negative number </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="false"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>the app shows wrong answer</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>Actual resu</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve">lt: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>"16"</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>Expected result: "</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="false"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>2"</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>Environment: win 10</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1. open the app</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>2. click [4]</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>3. click [+/-]</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>4. click [/</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>5. click [2]</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>6. click [+/-]</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>7. click [=]</t>
-    </r>
-  </si>
-  <si>
-    <t>wrong result after multiplication negative number on negative number</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve"> when you divide negative number by negative number </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="false"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>the app shows wrong answer</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>Actual resu</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve">lt: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>"16"</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve">Expected result: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>Environment: win 10</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1. open the app</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>2. click [4]</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>3. click [+/-]</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>4. click [</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>*]</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>5. click [2]</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>6. click [+/-]</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>7. click [=]</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve">8. </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>click [Выбор]</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve">9. click [Инженерный] </t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>10. do the steps 2-7</t>
-    </r>
-  </si>
-  <si>
-    <t>Калькулятр instead of Калькулятор  after switching scientific mode</t>
-  </si>
-  <si>
-    <r>
-      <t>when you choose scientific mode Калькулятр instead of Калькулятор in the left upper corner</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>Actual resu</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve">lt: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>"Калькулятр"</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve">Expected result: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>Калькулятор</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>Environment: win 10</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>1. open the app by double-clicking</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve">2. </t>
+    <r>
+      <t xml:space="preserve">
+</t>
     </r>
     <r>
       <rPr>
@@ -5007,6 +3414,1004 @@
         <color rgb="202020" tint="0"/>
         <sz val="10"/>
       </rPr>
+      <t>7. pay attention to message</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">the maximum number of characters for input </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve"> is exceeded</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>the maximum number of characters for input is exceeded</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <t>more than 20 characters can be entered</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="true"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>Actual resu</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="true"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve">lt: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="false"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>possible to enter more than 20 symbols,</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="true"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve">there is 111111111111111111111 </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve">in I/O field </t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="true"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>Expected result:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve"> possible to enter only 20 symbols, there is </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve">11111111111111111111 </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve">in I/O field </t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="true"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>Environment: win 10</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. open the app</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t>2. enter 21 characters: click [111111111111111111111]</t>
+    </r>
+  </si>
+  <si>
+    <t>no user guide after clicking "О программе"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>there is no user guide after clicking "О программе"</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="true"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>Actual resu</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="true"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve">lt: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>no user guide</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="true"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve">Expected result: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>user guide appears</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="true"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>Environment: win 10</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. open the app</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t>2. click [О программе]</t>
+    </r>
+  </si>
+  <si>
+    <t>changing panel color in scientific mode</t>
+  </si>
+  <si>
+    <r>
+      <t>part of the calculator panel with buttons for scientific mode changes color from gray to green and one button is added</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="true"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>Actual resu</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="true"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve">lt: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve">the color of the panel </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>with buttons for scientific mode</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve"> is green</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="true"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="false"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>with 3 buttons on it</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="true"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve">Expected result: </t>
+    </r>
+    <r>
+      <t xml:space="preserve">the color of the panel </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve">with buttons for scientific mode </t>
+    </r>
+    <r>
+      <t>does not change, it is gray with 2 buttons o</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="true"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve">n </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="false"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>it (for</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="false"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="true"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="false"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>oot extraction and squaring)</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="true"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>Environment: win 10</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>1. open the app</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>2. click [О программе]</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t>3. click [Выбор]</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t>4. click [Инженерный]</t>
+    </r>
+  </si>
+  <si>
+    <t>multiply button is misaligned</t>
+  </si>
+  <si>
+    <r>
+      <t>multiply button is misaligned</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="true"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>Actual resu</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="true"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve">lt: </t>
+    </r>
+    <r>
+      <t>button [*]  is not aligned</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="true"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve">Expected result: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve">button [*]  is </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="false"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>on the same row as [/] and the same column as [-]</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="true"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>Environment: win 10</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.open the app</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t>2.pay attention to button [*]</t>
+    </r>
+  </si>
+  <si>
+    <t>there is no way to enter numbers from the keyboard</t>
+  </si>
+  <si>
+    <r>
+      <t>there is no possibility to enter numbers from the keyboard</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="true"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>Actual resu</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="true"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve">lt: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="false"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>no</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="false"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="false"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>hing happens</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="true"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve">Expected result: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="false"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>ther</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="false"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="false"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve"> is "1" in I/O field</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="true"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>Environment: win 10</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. open the app</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t>2. press [1] on your computer keyboard</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>major</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>unnecessary  message appears when you click between the buttons</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">when miss a number and сlick the number pad, unnecessary message "Че жмешь куда ни попадя" </t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="true"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>Actual resu</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="true"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve">lt: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="false"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve"> message </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve">"Че жмешь куда ни попадя", </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="false"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve">the app </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="false"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="false"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>s closed</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="true"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve">Expected result: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="false"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>no</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="false"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>th</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="false"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>ing happens</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="true"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>Environment: win 10</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>1. open the app</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>2. click any place on numeric panel between number buttons</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>3. pay attention to message</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>4. click [ok]</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve">5. </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
       <t>click [Выбор]</t>
     </r>
     <r>
@@ -5019,7 +4424,986 @@
         <color theme="1" tint="0"/>
         <sz val="10"/>
       </rPr>
-      <t xml:space="preserve">3. </t>
+      <t xml:space="preserve">6. click [Инженерный] </t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve">7. </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>click any place on numeric panel between number buttons</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve">8. </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>pay attention to message</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>unnecessary  message appears when you click the buttons [+], [-], [/], [*], [=]</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve"> when you clicking the buttons [+], [-], [/], [*], [=] with empty field the message "is not a valid floating point value" appears</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="true"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>Actual resu</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="true"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve">lt: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>"is not a valid floating point value"</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="true"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve">Expected result: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="false"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>no</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="false"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>th</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="false"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>ing happens</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="true"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>Environment: win 10</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. open the app</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t>2. click [=], or [+], or [-], or [*], or [/]</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t>3. pay attention to message</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t>4. click [ok]</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">5. </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>click [Выбор]</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve">6. click [Инженерный] </t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">7. </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>click [=], or [+], or [-], or [*], or [/]</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve">8. </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>pay attention to message</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>wrong result after division negative number by negative number</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve"> when you divide negative number by negative number </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="false"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>the app shows wrong answer</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="true"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>Actual resu</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="true"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve">lt: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>"16"</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="true"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>Expected result: "</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="false"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>2"</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="true"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>Environment: win 10</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. open the app</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t>2. click [4]</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t>3. click [+/-]</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t>4. click [/</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>5. click [2]</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>6. click [+/-]</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>7. click [=]</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>8. pay attention to result</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>9. click [C]</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve">10. </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>click [Выбор]</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve">11. click [Инженерный] </t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>12. do the steps 2-8</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>wrong result after multiplication negative number on negative number</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve"> when you divide negative number by negative number </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="false"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>the app shows wrong answer</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="true"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>Actual resu</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="true"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve">lt: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>"16"</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="true"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve">Expected result: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="true"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="true"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>Environment: win 10</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. open the app</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t>2. click [4]</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t>3. click [+/-]</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t>4. click [</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>*]</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>5. click [2]</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>6. click [+/-]</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>7. click [=]</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">8. </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>pay attention to result</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">9. </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>click [C]</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve">10. </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>click [Выбор]</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve">11. click [Инженерный] </t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>12. do the steps 2-7</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve">13. </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>pay attention to result</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve">"Калькулятр" instead of "Калькулятор" </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve">in the left upper corner </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve">after switching scientific mode  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>when you choose scientific mode there is "Калькулятр" instead of "Калькулятор" in the left upper corner</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="true"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>Actual resu</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="true"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve">lt: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>"Калькулятр"</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="true"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>Expected result: "</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>Калькулятор"</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="true"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>Environment: win 10</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>1. open the app by double-clicking</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve">2. </t>
     </r>
     <r>
       <rPr>
@@ -5029,6 +5413,28 @@
         <color rgb="202020" tint="0"/>
         <sz val="10"/>
       </rPr>
+      <t>click [Выбор]</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve">3. </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="false"/>
+        <i val="false"/>
+        <color rgb="202020" tint="0"/>
+        <sz val="10"/>
+      </rPr>
       <t>click [Инженерный]</t>
     </r>
     <r>
@@ -5055,11 +5461,37 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-      </rPr>
-      <t>Actual resu</t>
+        <b val="false"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>If user click between buttons the app closes</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="true"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="true"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>ctual resu</t>
     </r>
     <r>
       <rPr>
@@ -5215,6 +5647,162 @@
         <sz val="10"/>
       </rPr>
       <t>ck any place on number panel between number buttons</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>number "3" in numeric panel is misaligned inside the button and has different font</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>number "3" in numeric panel is misaligned inside the button and has different font</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="true"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="true"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>ctual resu</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="true"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve">lt: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>number "3" in numeric panel is misaligned inside the button and has different font</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="true"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve">Expected result: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>number "3" in numeric panel is in the center of button  and has the same font as the other numbers</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="true"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>Environment: win 10</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>1. open the app by double-clicking</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>pay attention to button "3" in numeric panel</t>
     </r>
     <r>
       <t xml:space="preserve">
@@ -5284,9 +5872,7 @@
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD821" tint="0"/>
-      </patternFill>
+      <patternFill patternType="none"/>
     </fill>
   </fills>
   <borders count="3">
@@ -5311,19 +5897,22 @@
         <color rgb="000000" tint="0"/>
       </bottom>
     </border>
-    <border>
-      <left style="none">
+    <border diagonalDown="true" diagonalUp="true">
+      <left style="thin">
         <color rgb="000000" tint="0"/>
       </left>
       <right style="none">
         <color rgb="000000" tint="0"/>
       </right>
-      <top style="thin">
+      <top style="none">
         <color rgb="000000" tint="0"/>
       </top>
       <bottom style="none">
         <color rgb="000000" tint="0"/>
       </bottom>
+      <diagonal style="none">
+        <color rgb="000000" tint="0"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -5336,6 +5925,9 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
       <alignment vertical="top" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
@@ -5353,6 +5945,9 @@
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="6" numFmtId="1000" quotePrefix="false">
       <alignment vertical="top" wrapText="true"/>
     </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
     <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment vertical="top" wrapText="true"/>
     </xf>
@@ -5366,18 +5961,12 @@
       <alignment wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="5" numFmtId="1000" quotePrefix="false">
       <alignment wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="5" numFmtId="1000" quotePrefix="false">
       <alignment wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="5" numFmtId="1000" quotePrefix="false">
       <alignment wrapText="true"/>
     </xf>
   </cellXfs>
@@ -5387,6 +5976,315 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="10200967" y="414798"/>
+    <xdr:ext cx="1336572" cy="1689919"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr hidden="false" id="1" name="Picture 1"/>
+        <xdr:cNvPicPr preferRelativeResize="true"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="false" flipV="false" rot="0"/>
+        <a:prstGeom prst="rect"/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="true"/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="10124153" y="2120080"/>
+    <xdr:ext cx="1367297" cy="1828185"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr hidden="false" id="2" name="Picture 2"/>
+        <xdr:cNvPicPr preferRelativeResize="true"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="false" flipV="false" rot="0"/>
+        <a:prstGeom prst="rect"/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="true"/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="10139514" y="4086532"/>
+    <xdr:ext cx="1398024" cy="1689919"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr hidden="false" id="3" name="Picture 3"/>
+        <xdr:cNvPicPr preferRelativeResize="true"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="false" flipV="false" rot="0"/>
+        <a:prstGeom prst="rect"/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="true"/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="10154878" y="6006894"/>
+    <xdr:ext cx="1490201" cy="1782096"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr hidden="false" id="4" name="Picture 4"/>
+        <xdr:cNvPicPr preferRelativeResize="true"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="false" flipV="false" rot="0"/>
+        <a:prstGeom prst="rect"/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="true"/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="10093427" y="7973346"/>
+    <xdr:ext cx="1613104" cy="1997177"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr hidden="false" id="5" name="Picture 5"/>
+        <xdr:cNvPicPr preferRelativeResize="true"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="false" flipV="false" rot="0"/>
+        <a:prstGeom prst="rect"/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="true"/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="10185605" y="10031975"/>
+    <xdr:ext cx="1367297" cy="1812822"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr hidden="false" id="6" name="Picture 6"/>
+        <xdr:cNvPicPr preferRelativeResize="true"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="false" flipV="false" rot="0"/>
+        <a:prstGeom prst="rect"/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="true"/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="10247056" y="11952337"/>
+    <xdr:ext cx="1305846" cy="1597741"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr hidden="false" id="7" name="Picture 7"/>
+        <xdr:cNvPicPr preferRelativeResize="true"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="false" flipV="false" rot="0"/>
+        <a:prstGeom prst="rect"/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="true"/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="10124153" y="19695242"/>
+    <xdr:ext cx="1997177" cy="1736008"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr hidden="false" id="8" name="Picture 8"/>
+        <xdr:cNvPicPr preferRelativeResize="true"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="false" flipV="false" rot="0"/>
+        <a:prstGeom prst="rect"/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="true"/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="10108790" y="21415886"/>
+    <xdr:ext cx="1843547" cy="1613104"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr hidden="false" id="9" name="Picture 9"/>
+        <xdr:cNvPicPr preferRelativeResize="true"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="false" flipV="false" rot="0"/>
+        <a:prstGeom prst="rect"/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="true"/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="10093427" y="23244070"/>
+    <xdr:ext cx="2027903" cy="1474838"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr hidden="false" id="10" name="Picture 10"/>
+        <xdr:cNvPicPr preferRelativeResize="true"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="false" flipV="false" rot="0"/>
+        <a:prstGeom prst="rect"/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="true"/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="10154879" y="27284514"/>
+    <xdr:ext cx="1889636" cy="1613104"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr hidden="false" id="11" name="Picture 11"/>
+        <xdr:cNvPicPr preferRelativeResize="true"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId11"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="false" flipV="false" rot="0"/>
+        <a:prstGeom prst="rect"/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="true"/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="10323871" y="28974436"/>
+    <xdr:ext cx="1351935" cy="1674555"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr hidden="false" id="12" name="Picture 12"/>
+        <xdr:cNvPicPr preferRelativeResize="true"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId12"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="false" flipV="false" rot="0"/>
+        <a:prstGeom prst="rect"/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="true"/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="10154879" y="31878024"/>
+    <xdr:ext cx="1751370" cy="1966450"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr hidden="false" id="13" name="Picture 13"/>
+        <xdr:cNvPicPr preferRelativeResize="true"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId13"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="false" flipV="false" rot="0"/>
+        <a:prstGeom prst="rect"/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="true"/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="10185605" y="34028828"/>
+    <xdr:ext cx="1889636" cy="1244395"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr hidden="false" id="14" name="Picture 14"/>
+        <xdr:cNvPicPr preferRelativeResize="true"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId14"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="false" flipV="false" rot="0"/>
+        <a:prstGeom prst="rect"/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="true"/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="10093426" y="39620924"/>
+    <xdr:ext cx="1874274" cy="1628468"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr hidden="false" id="15" name="Picture 15"/>
+        <xdr:cNvPicPr preferRelativeResize="true"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId15"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="false" flipV="false" rot="0"/>
+        <a:prstGeom prst="rect"/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="true"/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="10231693" y="43139028"/>
+    <xdr:ext cx="1428750" cy="1874273"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr hidden="false" id="16" name="Picture 16"/>
+        <xdr:cNvPicPr preferRelativeResize="true"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId16"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="false" flipV="false" rot="0"/>
+        <a:prstGeom prst="rect"/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="true"/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5606,7 +6504,7 @@
     <col customWidth="true" max="4" min="4" outlineLevel="0" style="1" width="34.7773433026347"/>
     <col customWidth="true" max="5" min="5" outlineLevel="0" style="1" width="14.4414056559359"/>
     <col customWidth="true" max="6" min="6" outlineLevel="0" style="1" width="13.0000001691662"/>
-    <col customWidth="true" max="7" min="7" outlineLevel="0" width="14.3320309229013"/>
+    <col customWidth="true" hidden="false" max="7" min="7" outlineLevel="0" width="29.3182261166533"/>
     <col customWidth="true" max="8" min="8" outlineLevel="0" width="19.1093745638684"/>
     <col customWidth="true" max="10" min="10" outlineLevel="0" width="12.554687112768"/>
   </cols>
@@ -5633,1233 +6531,1244 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="n"/>
+      <c r="I1" s="5" t="n"/>
+      <c r="J1" s="5" t="n"/>
+      <c r="K1" s="6" t="n"/>
+      <c r="L1" s="6" t="n"/>
+      <c r="M1" s="6" t="n"/>
+      <c r="N1" s="6" t="n"/>
+      <c r="O1" s="6" t="n"/>
+      <c r="P1" s="6" t="n"/>
+      <c r="Q1" s="6" t="n"/>
+      <c r="R1" s="6" t="n"/>
+      <c r="S1" s="6" t="n"/>
+      <c r="T1" s="6" t="n"/>
+      <c r="U1" s="6" t="n"/>
+    </row>
+    <row customHeight="true" hidden="false" ht="138.135467529297" outlineLevel="0" r="2">
+      <c r="A2" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="n"/>
-      <c r="J1" s="4" t="n"/>
-      <c r="K1" s="5" t="n"/>
-      <c r="L1" s="5" t="n"/>
-      <c r="M1" s="5" t="n"/>
-      <c r="N1" s="5" t="n"/>
-      <c r="O1" s="5" t="n"/>
-      <c r="P1" s="5" t="n"/>
-      <c r="Q1" s="5" t="n"/>
-      <c r="R1" s="5" t="n"/>
-      <c r="S1" s="5" t="n"/>
-      <c r="T1" s="5" t="n"/>
-      <c r="U1" s="5" t="n"/>
+      <c r="C2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="7" t="n"/>
+      <c r="H2" s="10" t="n"/>
+      <c r="I2" s="11" t="n"/>
+      <c r="J2" s="11" t="n"/>
+      <c r="K2" s="6" t="n"/>
+      <c r="L2" s="6" t="n"/>
+      <c r="M2" s="6" t="n"/>
+      <c r="N2" s="6" t="n"/>
+      <c r="O2" s="6" t="n"/>
+      <c r="P2" s="6" t="n"/>
+      <c r="Q2" s="6" t="n"/>
+      <c r="R2" s="6" t="n"/>
+      <c r="S2" s="6" t="n"/>
+      <c r="T2" s="6" t="n"/>
+      <c r="U2" s="6" t="n"/>
     </row>
-    <row customHeight="true" hidden="false" ht="101.199996948242" outlineLevel="0" r="2">
-      <c r="A2" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="8" t="s">
+    <row customHeight="true" hidden="false" ht="147.580642700195" outlineLevel="0" r="3">
+      <c r="A3" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="6" t="n"/>
-      <c r="H2" s="6" t="n"/>
-      <c r="I2" s="9" t="n"/>
-      <c r="J2" s="9" t="n"/>
-      <c r="K2" s="5" t="n"/>
-      <c r="L2" s="5" t="n"/>
-      <c r="M2" s="5" t="n"/>
-      <c r="N2" s="5" t="n"/>
-      <c r="O2" s="5" t="n"/>
-      <c r="P2" s="5" t="n"/>
-      <c r="Q2" s="5" t="n"/>
-      <c r="R2" s="5" t="n"/>
-      <c r="S2" s="5" t="n"/>
-      <c r="T2" s="5" t="n"/>
-      <c r="U2" s="5" t="n"/>
+      <c r="C3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="7" t="n"/>
+      <c r="H3" s="10" t="n"/>
+      <c r="I3" s="11" t="n"/>
+      <c r="J3" s="11" t="n"/>
+      <c r="K3" s="6" t="n"/>
+      <c r="L3" s="6" t="n"/>
+      <c r="M3" s="6" t="n"/>
+      <c r="N3" s="6" t="n"/>
+      <c r="O3" s="6" t="n"/>
+      <c r="P3" s="6" t="n"/>
+      <c r="Q3" s="6" t="n"/>
+      <c r="R3" s="6" t="n"/>
+      <c r="S3" s="6" t="n"/>
+      <c r="T3" s="6" t="n"/>
+      <c r="U3" s="6" t="n"/>
     </row>
-    <row customHeight="true" hidden="false" ht="87" outlineLevel="0" r="3">
-      <c r="A3" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="7" t="s">
+    <row customHeight="true" hidden="false" ht="148.790313720703" outlineLevel="0" r="4">
+      <c r="A4" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="7" t="n"/>
+      <c r="H4" s="10" t="n"/>
+      <c r="I4" s="11" t="n"/>
+      <c r="J4" s="11" t="n"/>
+      <c r="K4" s="6" t="n"/>
+      <c r="L4" s="6" t="n"/>
+      <c r="M4" s="6" t="n"/>
+      <c r="N4" s="6" t="n"/>
+      <c r="O4" s="6" t="n"/>
+      <c r="P4" s="6" t="n"/>
+      <c r="Q4" s="6" t="n"/>
+      <c r="R4" s="6" t="n"/>
+      <c r="S4" s="6" t="n"/>
+      <c r="T4" s="6" t="n"/>
+      <c r="U4" s="6" t="n"/>
+    </row>
+    <row customHeight="true" hidden="false" ht="159.677398681641" outlineLevel="0" r="5">
+      <c r="A5" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="7" t="n"/>
+      <c r="H5" s="10" t="n"/>
+      <c r="I5" s="11" t="n"/>
+      <c r="J5" s="11" t="n"/>
+      <c r="K5" s="6" t="n"/>
+      <c r="L5" s="6" t="n"/>
+      <c r="M5" s="6" t="n"/>
+      <c r="N5" s="6" t="n"/>
+      <c r="O5" s="6" t="n"/>
+      <c r="P5" s="6" t="n"/>
+      <c r="Q5" s="6" t="n"/>
+      <c r="R5" s="6" t="n"/>
+      <c r="S5" s="6" t="n"/>
+      <c r="T5" s="6" t="n"/>
+      <c r="U5" s="6" t="n"/>
+    </row>
+    <row customHeight="true" hidden="false" ht="163.306457519531" outlineLevel="0" r="6">
+      <c r="A6" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="7" t="n"/>
+      <c r="H6" s="10" t="n"/>
+      <c r="I6" s="11" t="n"/>
+      <c r="J6" s="11" t="n"/>
+      <c r="K6" s="6" t="n"/>
+      <c r="L6" s="6" t="n"/>
+      <c r="M6" s="6" t="n"/>
+      <c r="N6" s="6" t="n"/>
+      <c r="O6" s="6" t="n"/>
+      <c r="P6" s="6" t="n"/>
+      <c r="Q6" s="6" t="n"/>
+      <c r="R6" s="6" t="n"/>
+      <c r="S6" s="6" t="n"/>
+      <c r="T6" s="6" t="n"/>
+      <c r="U6" s="6" t="n"/>
+    </row>
+    <row customHeight="true" hidden="false" ht="151.209655761719" outlineLevel="0" r="7">
+      <c r="A7" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="6" t="n"/>
-      <c r="H3" s="6" t="n"/>
-      <c r="I3" s="9" t="n"/>
-      <c r="J3" s="9" t="n"/>
-      <c r="K3" s="5" t="n"/>
-      <c r="L3" s="5" t="n"/>
-      <c r="M3" s="5" t="n"/>
-      <c r="N3" s="5" t="n"/>
-      <c r="O3" s="5" t="n"/>
-      <c r="P3" s="5" t="n"/>
-      <c r="Q3" s="5" t="n"/>
-      <c r="R3" s="5" t="n"/>
-      <c r="S3" s="5" t="n"/>
-      <c r="T3" s="5" t="n"/>
-      <c r="U3" s="5" t="n"/>
+      <c r="G7" s="7" t="n"/>
+      <c r="H7" s="10" t="n"/>
+      <c r="I7" s="11" t="n"/>
+      <c r="J7" s="11" t="n"/>
+      <c r="K7" s="6" t="n"/>
+      <c r="L7" s="6" t="n"/>
+      <c r="M7" s="6" t="n"/>
+      <c r="N7" s="6" t="n"/>
+      <c r="O7" s="6" t="n"/>
+      <c r="P7" s="6" t="n"/>
+      <c r="Q7" s="6" t="n"/>
+      <c r="R7" s="6" t="n"/>
+      <c r="S7" s="6" t="n"/>
+      <c r="T7" s="6" t="n"/>
+      <c r="U7" s="6" t="n"/>
     </row>
-    <row customHeight="true" hidden="false" ht="102.160736083984" outlineLevel="0" r="4">
-      <c r="A4" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="6" t="n"/>
-      <c r="H4" s="6" t="n"/>
-      <c r="I4" s="9" t="n"/>
-      <c r="J4" s="9" t="n"/>
-      <c r="K4" s="5" t="n"/>
-      <c r="L4" s="5" t="n"/>
-      <c r="M4" s="5" t="n"/>
-      <c r="N4" s="5" t="n"/>
-      <c r="O4" s="5" t="n"/>
-      <c r="P4" s="5" t="n"/>
-      <c r="Q4" s="5" t="n"/>
-      <c r="R4" s="5" t="n"/>
-      <c r="S4" s="5" t="n"/>
-      <c r="T4" s="5" t="n"/>
-      <c r="U4" s="5" t="n"/>
-    </row>
-    <row customHeight="true" hidden="false" ht="112.839263916016" outlineLevel="0" r="5">
-      <c r="A5" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="6" t="n"/>
-      <c r="H5" s="6" t="n"/>
-      <c r="I5" s="9" t="n"/>
-      <c r="J5" s="9" t="n"/>
-      <c r="K5" s="5" t="n"/>
-      <c r="L5" s="5" t="n"/>
-      <c r="M5" s="5" t="n"/>
-      <c r="N5" s="5" t="n"/>
-      <c r="O5" s="5" t="n"/>
-      <c r="P5" s="5" t="n"/>
-      <c r="Q5" s="5" t="n"/>
-      <c r="R5" s="5" t="n"/>
-      <c r="S5" s="5" t="n"/>
-      <c r="T5" s="5" t="n"/>
-      <c r="U5" s="5" t="n"/>
-    </row>
-    <row customHeight="true" hidden="false" ht="130" outlineLevel="0" r="6">
-      <c r="A6" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="6" t="n"/>
-      <c r="H6" s="6" t="n"/>
-      <c r="I6" s="9" t="n"/>
-      <c r="J6" s="9" t="n"/>
-      <c r="K6" s="5" t="n"/>
-      <c r="L6" s="5" t="n"/>
-      <c r="M6" s="5" t="n"/>
-      <c r="N6" s="5" t="n"/>
-      <c r="O6" s="5" t="n"/>
-      <c r="P6" s="5" t="n"/>
-      <c r="Q6" s="5" t="n"/>
-      <c r="R6" s="5" t="n"/>
-      <c r="S6" s="5" t="n"/>
-      <c r="T6" s="5" t="n"/>
-      <c r="U6" s="5" t="n"/>
-    </row>
-    <row customHeight="true" hidden="false" ht="116" outlineLevel="0" r="7">
-      <c r="A7" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="7" t="s">
+    <row customHeight="true" hidden="false" ht="130.645202636719" outlineLevel="0" r="8">
+      <c r="A8" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="6" t="n"/>
-      <c r="H7" s="6" t="n"/>
-      <c r="I7" s="9" t="n"/>
-      <c r="J7" s="9" t="n"/>
-      <c r="K7" s="5" t="n"/>
-      <c r="L7" s="5" t="n"/>
-      <c r="M7" s="5" t="n"/>
-      <c r="N7" s="5" t="n"/>
-      <c r="O7" s="5" t="n"/>
-      <c r="P7" s="5" t="n"/>
-      <c r="Q7" s="5" t="n"/>
-      <c r="R7" s="5" t="n"/>
-      <c r="S7" s="5" t="n"/>
-      <c r="T7" s="5" t="n"/>
-      <c r="U7" s="5" t="n"/>
-    </row>
-    <row customHeight="true" hidden="false" ht="84" outlineLevel="0" r="8">
-      <c r="A8" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7" t="s">
+      <c r="C8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="D8" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="E8" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="F8" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="6" t="n"/>
-      <c r="H8" s="6" t="n"/>
-      <c r="I8" s="9" t="n"/>
-      <c r="J8" s="9" t="n"/>
-      <c r="K8" s="5" t="n"/>
-      <c r="L8" s="5" t="n"/>
-      <c r="M8" s="5" t="n"/>
-      <c r="N8" s="5" t="n"/>
-      <c r="O8" s="5" t="n"/>
-      <c r="P8" s="5" t="n"/>
-      <c r="Q8" s="5" t="n"/>
-      <c r="R8" s="5" t="n"/>
-      <c r="S8" s="5" t="n"/>
-      <c r="T8" s="5" t="n"/>
-      <c r="U8" s="5" t="n"/>
+      <c r="G8" s="7" t="n"/>
+      <c r="H8" s="10" t="n"/>
+      <c r="I8" s="11" t="n"/>
+      <c r="J8" s="11" t="n"/>
+      <c r="K8" s="6" t="n"/>
+      <c r="L8" s="6" t="n"/>
+      <c r="M8" s="6" t="n"/>
+      <c r="N8" s="6" t="n"/>
+      <c r="O8" s="6" t="n"/>
+      <c r="P8" s="6" t="n"/>
+      <c r="Q8" s="6" t="n"/>
+      <c r="R8" s="6" t="n"/>
+      <c r="S8" s="6" t="n"/>
+      <c r="T8" s="6" t="n"/>
+      <c r="U8" s="6" t="n"/>
     </row>
     <row customHeight="true" hidden="false" ht="229.659790039062" outlineLevel="0" r="9">
-      <c r="A9" s="6" t="n">
+      <c r="A9" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="D9" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="E9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="F9" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="n"/>
+      <c r="H9" s="10" t="n"/>
+      <c r="I9" s="11" t="n"/>
+      <c r="J9" s="11" t="n"/>
+      <c r="K9" s="6" t="n"/>
+      <c r="L9" s="6" t="n"/>
+      <c r="M9" s="6" t="n"/>
+      <c r="N9" s="6" t="n"/>
+      <c r="O9" s="6" t="n"/>
+      <c r="P9" s="6" t="n"/>
+      <c r="Q9" s="6" t="n"/>
+      <c r="R9" s="6" t="n"/>
+      <c r="S9" s="6" t="n"/>
+      <c r="T9" s="6" t="n"/>
+      <c r="U9" s="6" t="n"/>
+    </row>
+    <row customHeight="true" hidden="false" ht="130.823974609375" outlineLevel="0" r="10">
+      <c r="A10" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="6" t="n"/>
-      <c r="H9" s="6" t="n"/>
-      <c r="I9" s="9" t="n"/>
-      <c r="J9" s="9" t="n"/>
-      <c r="K9" s="5" t="n"/>
-      <c r="L9" s="5" t="n"/>
-      <c r="M9" s="5" t="n"/>
-      <c r="N9" s="5" t="n"/>
-      <c r="O9" s="5" t="n"/>
-      <c r="P9" s="5" t="n"/>
-      <c r="Q9" s="5" t="n"/>
-      <c r="R9" s="5" t="n"/>
-      <c r="S9" s="5" t="n"/>
-      <c r="T9" s="5" t="n"/>
-      <c r="U9" s="5" t="n"/>
-    </row>
-    <row customHeight="true" hidden="false" ht="112.340209960938" outlineLevel="0" r="10">
-      <c r="A10" s="6" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7" t="s">
+      <c r="C10" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="D10" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="6" t="n"/>
-      <c r="H10" s="6" t="n"/>
-      <c r="I10" s="9" t="n"/>
-      <c r="J10" s="9" t="n"/>
-      <c r="K10" s="5" t="n"/>
-      <c r="L10" s="5" t="n"/>
-      <c r="M10" s="5" t="n"/>
-      <c r="N10" s="5" t="n"/>
-      <c r="O10" s="5" t="n"/>
-      <c r="P10" s="5" t="n"/>
-      <c r="Q10" s="5" t="n"/>
-      <c r="R10" s="5" t="n"/>
-      <c r="S10" s="5" t="n"/>
-      <c r="T10" s="5" t="n"/>
-      <c r="U10" s="5" t="n"/>
+      <c r="G10" s="7" t="n"/>
+      <c r="H10" s="10" t="n"/>
+      <c r="I10" s="11" t="n"/>
+      <c r="J10" s="11" t="n"/>
+      <c r="K10" s="6" t="n"/>
+      <c r="L10" s="6" t="n"/>
+      <c r="M10" s="6" t="n"/>
+      <c r="N10" s="6" t="n"/>
+      <c r="O10" s="6" t="n"/>
+      <c r="P10" s="6" t="n"/>
+      <c r="Q10" s="6" t="n"/>
+      <c r="R10" s="6" t="n"/>
+      <c r="S10" s="6" t="n"/>
+      <c r="T10" s="6" t="n"/>
+      <c r="U10" s="6" t="n"/>
     </row>
     <row customHeight="true" hidden="false" ht="119" outlineLevel="0" r="11">
-      <c r="A11" s="6" t="n">
+      <c r="A11" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="D11" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="E11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="7" t="n"/>
+      <c r="H11" s="10" t="n"/>
+      <c r="I11" s="11" t="n"/>
+      <c r="J11" s="11" t="n"/>
+      <c r="K11" s="6" t="n"/>
+      <c r="L11" s="6" t="n"/>
+      <c r="M11" s="6" t="n"/>
+      <c r="N11" s="6" t="n"/>
+      <c r="O11" s="6" t="n"/>
+      <c r="P11" s="6" t="n"/>
+      <c r="Q11" s="6" t="n"/>
+      <c r="R11" s="6" t="n"/>
+      <c r="S11" s="6" t="n"/>
+      <c r="T11" s="6" t="n"/>
+      <c r="U11" s="6" t="n"/>
+    </row>
+    <row customHeight="true" hidden="false" ht="137.790283203125" outlineLevel="0" r="12">
+      <c r="A12" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="6" t="n"/>
-      <c r="H11" s="6" t="n"/>
-      <c r="I11" s="9" t="n"/>
-      <c r="J11" s="9" t="n"/>
-      <c r="K11" s="5" t="n"/>
-      <c r="L11" s="5" t="n"/>
-      <c r="M11" s="5" t="n"/>
-      <c r="N11" s="5" t="n"/>
-      <c r="O11" s="5" t="n"/>
-      <c r="P11" s="5" t="n"/>
-      <c r="Q11" s="5" t="n"/>
-      <c r="R11" s="5" t="n"/>
-      <c r="S11" s="5" t="n"/>
-      <c r="T11" s="5" t="n"/>
-      <c r="U11" s="5" t="n"/>
+      <c r="C12" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="7" t="n"/>
+      <c r="H12" s="10" t="n"/>
+      <c r="I12" s="11" t="n"/>
+      <c r="J12" s="11" t="n"/>
+      <c r="K12" s="6" t="n"/>
+      <c r="L12" s="6" t="n"/>
+      <c r="M12" s="6" t="n"/>
+      <c r="N12" s="6" t="n"/>
+      <c r="O12" s="6" t="n"/>
+      <c r="P12" s="6" t="n"/>
+      <c r="Q12" s="6" t="n"/>
+      <c r="R12" s="6" t="n"/>
+      <c r="S12" s="6" t="n"/>
+      <c r="T12" s="6" t="n"/>
+      <c r="U12" s="6" t="n"/>
     </row>
-    <row customHeight="true" hidden="false" ht="72" outlineLevel="0" r="12">
-      <c r="A12" s="6" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="7" t="s">
+    <row customHeight="true" hidden="false" ht="136.693481445312" outlineLevel="0" r="13">
+      <c r="A13" s="7" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="C13" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="6" t="n"/>
-      <c r="H12" s="6" t="n"/>
-      <c r="I12" s="9" t="n"/>
-      <c r="J12" s="9" t="n"/>
-      <c r="K12" s="5" t="n"/>
-      <c r="L12" s="5" t="n"/>
-      <c r="M12" s="5" t="n"/>
-      <c r="N12" s="5" t="n"/>
-      <c r="O12" s="5" t="n"/>
-      <c r="P12" s="5" t="n"/>
-      <c r="Q12" s="5" t="n"/>
-      <c r="R12" s="5" t="n"/>
-      <c r="S12" s="5" t="n"/>
-      <c r="T12" s="5" t="n"/>
-      <c r="U12" s="5" t="n"/>
+      <c r="G13" s="7" t="n"/>
+      <c r="H13" s="10" t="n"/>
+      <c r="I13" s="11" t="n"/>
+      <c r="J13" s="11" t="n"/>
+      <c r="K13" s="6" t="n"/>
+      <c r="L13" s="6" t="n"/>
+      <c r="M13" s="6" t="n"/>
+      <c r="N13" s="6" t="n"/>
+      <c r="O13" s="6" t="n"/>
+      <c r="P13" s="6" t="n"/>
+      <c r="Q13" s="6" t="n"/>
+      <c r="R13" s="6" t="n"/>
+      <c r="S13" s="6" t="n"/>
+      <c r="T13" s="6" t="n"/>
+      <c r="U13" s="6" t="n"/>
     </row>
-    <row customHeight="true" hidden="false" ht="85" outlineLevel="0" r="13">
-      <c r="A13" s="6" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="7" t="s">
+    <row customHeight="true" hidden="false" ht="128.225830078125" outlineLevel="0" r="14">
+      <c r="A14" s="7" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="C14" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="6" t="n"/>
-      <c r="H13" s="6" t="n"/>
-      <c r="I13" s="9" t="n"/>
-      <c r="J13" s="9" t="n"/>
-      <c r="K13" s="5" t="n"/>
-      <c r="L13" s="5" t="n"/>
-      <c r="M13" s="5" t="n"/>
-      <c r="N13" s="5" t="n"/>
-      <c r="O13" s="5" t="n"/>
-      <c r="P13" s="5" t="n"/>
-      <c r="Q13" s="5" t="n"/>
-      <c r="R13" s="5" t="n"/>
-      <c r="S13" s="5" t="n"/>
-      <c r="T13" s="5" t="n"/>
-      <c r="U13" s="5" t="n"/>
-    </row>
-    <row customHeight="true" hidden="false" ht="106.966796875" outlineLevel="0" r="14">
-      <c r="A14" s="6" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="6" t="n"/>
-      <c r="H14" s="6" t="n"/>
-      <c r="I14" s="9" t="n"/>
-      <c r="J14" s="9" t="n"/>
-      <c r="K14" s="5" t="n"/>
-      <c r="L14" s="5" t="n"/>
-      <c r="M14" s="5" t="n"/>
-      <c r="N14" s="5" t="n"/>
-      <c r="O14" s="5" t="n"/>
-      <c r="P14" s="5" t="n"/>
-      <c r="Q14" s="5" t="n"/>
-      <c r="R14" s="5" t="n"/>
-      <c r="S14" s="5" t="n"/>
-      <c r="T14" s="5" t="n"/>
-      <c r="U14" s="5" t="n"/>
+      <c r="G14" s="7" t="n"/>
+      <c r="H14" s="10" t="n"/>
+      <c r="I14" s="11" t="n"/>
+      <c r="J14" s="11" t="n"/>
+      <c r="K14" s="6" t="n"/>
+      <c r="L14" s="6" t="n"/>
+      <c r="M14" s="6" t="n"/>
+      <c r="N14" s="6" t="n"/>
+      <c r="O14" s="6" t="n"/>
+      <c r="P14" s="6" t="n"/>
+      <c r="Q14" s="6" t="n"/>
+      <c r="R14" s="6" t="n"/>
+      <c r="S14" s="6" t="n"/>
+      <c r="T14" s="6" t="n"/>
+      <c r="U14" s="6" t="n"/>
     </row>
     <row customHeight="true" hidden="false" ht="106" outlineLevel="0" r="15">
-      <c r="A15" s="6" t="n">
+      <c r="A15" s="7" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="D15" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="E15" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="7" t="n"/>
+      <c r="H15" s="10" t="n"/>
+      <c r="I15" s="11" t="n"/>
+      <c r="J15" s="11" t="n"/>
+      <c r="K15" s="6" t="n"/>
+      <c r="L15" s="6" t="n"/>
+      <c r="M15" s="6" t="n"/>
+      <c r="N15" s="6" t="n"/>
+      <c r="O15" s="6" t="n"/>
+      <c r="P15" s="6" t="n"/>
+      <c r="Q15" s="6" t="n"/>
+      <c r="R15" s="6" t="n"/>
+      <c r="S15" s="6" t="n"/>
+      <c r="T15" s="6" t="n"/>
+      <c r="U15" s="6" t="n"/>
+    </row>
+    <row customHeight="true" hidden="false" ht="89.629150390625" outlineLevel="0" r="16">
+      <c r="A16" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="C16" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15" s="6" t="n"/>
-      <c r="H15" s="6" t="n"/>
-      <c r="I15" s="9" t="n"/>
-      <c r="J15" s="9" t="n"/>
-      <c r="K15" s="5" t="n"/>
-      <c r="L15" s="5" t="n"/>
-      <c r="M15" s="5" t="n"/>
-      <c r="N15" s="5" t="n"/>
-      <c r="O15" s="5" t="n"/>
-      <c r="P15" s="5" t="n"/>
-      <c r="Q15" s="5" t="n"/>
-      <c r="R15" s="5" t="n"/>
-      <c r="S15" s="5" t="n"/>
-      <c r="T15" s="5" t="n"/>
-      <c r="U15" s="5" t="n"/>
-    </row>
-    <row customHeight="true" hidden="false" ht="71" outlineLevel="0" r="16">
-      <c r="A16" s="6" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" s="6" t="n"/>
-      <c r="H16" s="6" t="n"/>
-      <c r="I16" s="9" t="n"/>
-      <c r="J16" s="9" t="n"/>
-      <c r="K16" s="5" t="n"/>
-      <c r="L16" s="5" t="n"/>
-      <c r="M16" s="5" t="n"/>
-      <c r="N16" s="5" t="n"/>
-      <c r="O16" s="5" t="n"/>
-      <c r="P16" s="5" t="n"/>
-      <c r="Q16" s="5" t="n"/>
-      <c r="R16" s="5" t="n"/>
-      <c r="S16" s="5" t="n"/>
-      <c r="T16" s="5" t="n"/>
-      <c r="U16" s="5" t="n"/>
+      <c r="G16" s="7" t="n"/>
+      <c r="H16" s="10" t="n"/>
+      <c r="I16" s="11" t="n"/>
+      <c r="J16" s="11" t="n"/>
+      <c r="K16" s="6" t="n"/>
+      <c r="L16" s="6" t="n"/>
+      <c r="M16" s="6" t="n"/>
+      <c r="N16" s="6" t="n"/>
+      <c r="O16" s="6" t="n"/>
+      <c r="P16" s="6" t="n"/>
+      <c r="Q16" s="6" t="n"/>
+      <c r="R16" s="6" t="n"/>
+      <c r="S16" s="6" t="n"/>
+      <c r="T16" s="6" t="n"/>
+      <c r="U16" s="6" t="n"/>
     </row>
     <row customHeight="true" hidden="false" ht="134" outlineLevel="0" r="17">
-      <c r="A17" s="6" t="n">
+      <c r="A17" s="7" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="D17" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="E17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="7" t="n"/>
+      <c r="H17" s="10" t="n"/>
+      <c r="I17" s="11" t="n"/>
+      <c r="J17" s="11" t="n"/>
+      <c r="K17" s="6" t="n"/>
+      <c r="L17" s="6" t="n"/>
+      <c r="M17" s="6" t="n"/>
+      <c r="N17" s="6" t="n"/>
+      <c r="O17" s="6" t="n"/>
+      <c r="P17" s="6" t="n"/>
+      <c r="Q17" s="6" t="n"/>
+      <c r="R17" s="6" t="n"/>
+      <c r="S17" s="6" t="n"/>
+      <c r="T17" s="6" t="n"/>
+      <c r="U17" s="6" t="n"/>
+    </row>
+    <row customHeight="true" hidden="false" ht="135.758056640625" outlineLevel="0" r="18">
+      <c r="A18" s="7" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="C18" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="6" t="n"/>
-      <c r="H17" s="6" t="n"/>
-      <c r="I17" s="9" t="n"/>
-      <c r="J17" s="9" t="n"/>
-      <c r="K17" s="5" t="n"/>
-      <c r="L17" s="5" t="n"/>
-      <c r="M17" s="5" t="n"/>
-      <c r="N17" s="5" t="n"/>
-      <c r="O17" s="5" t="n"/>
-      <c r="P17" s="5" t="n"/>
-      <c r="Q17" s="5" t="n"/>
-      <c r="R17" s="5" t="n"/>
-      <c r="S17" s="5" t="n"/>
-      <c r="T17" s="5" t="n"/>
-      <c r="U17" s="5" t="n"/>
-    </row>
-    <row customHeight="true" hidden="false" ht="101.033203125" outlineLevel="0" r="18">
-      <c r="A18" s="6" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="6" t="n"/>
-      <c r="H18" s="6" t="n"/>
-      <c r="I18" s="9" t="n"/>
-      <c r="J18" s="9" t="n"/>
-      <c r="K18" s="5" t="n"/>
-      <c r="L18" s="5" t="n"/>
-      <c r="M18" s="5" t="n"/>
-      <c r="N18" s="5" t="n"/>
-      <c r="O18" s="5" t="n"/>
-      <c r="P18" s="5" t="n"/>
-      <c r="Q18" s="5" t="n"/>
-      <c r="R18" s="5" t="n"/>
-      <c r="S18" s="5" t="n"/>
-      <c r="T18" s="5" t="n"/>
-      <c r="U18" s="5" t="n"/>
+      <c r="G18" s="7" t="n"/>
+      <c r="H18" s="10" t="n"/>
+      <c r="I18" s="11" t="n"/>
+      <c r="J18" s="11" t="n"/>
+      <c r="K18" s="6" t="n"/>
+      <c r="L18" s="6" t="n"/>
+      <c r="M18" s="6" t="n"/>
+      <c r="N18" s="6" t="n"/>
+      <c r="O18" s="6" t="n"/>
+      <c r="P18" s="6" t="n"/>
+      <c r="Q18" s="6" t="n"/>
+      <c r="R18" s="6" t="n"/>
+      <c r="S18" s="6" t="n"/>
+      <c r="T18" s="6" t="n"/>
+      <c r="U18" s="6" t="n"/>
     </row>
     <row customHeight="true" hidden="false" ht="94.033203125" outlineLevel="0" r="19">
-      <c r="A19" s="6" t="n">
+      <c r="A19" s="7" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="D19" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="E19" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="F19" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="n"/>
+      <c r="H19" s="10" t="n"/>
+      <c r="I19" s="11" t="n"/>
+      <c r="J19" s="11" t="n"/>
+      <c r="K19" s="6" t="n"/>
+      <c r="L19" s="6" t="n"/>
+      <c r="M19" s="6" t="n"/>
+      <c r="N19" s="6" t="n"/>
+      <c r="O19" s="6" t="n"/>
+      <c r="P19" s="6" t="n"/>
+      <c r="Q19" s="6" t="n"/>
+      <c r="R19" s="6" t="n"/>
+      <c r="S19" s="6" t="n"/>
+      <c r="T19" s="6" t="n"/>
+      <c r="U19" s="6" t="n"/>
+    </row>
+    <row customHeight="true" hidden="false" ht="162.41845703125" outlineLevel="0" r="20">
+      <c r="A20" s="7" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="G19" s="6" t="n"/>
-      <c r="H19" s="6" t="n"/>
-      <c r="I19" s="9" t="n"/>
-      <c r="J19" s="9" t="n"/>
-      <c r="K19" s="5" t="n"/>
-      <c r="L19" s="5" t="n"/>
-      <c r="M19" s="5" t="n"/>
-      <c r="N19" s="5" t="n"/>
-      <c r="O19" s="5" t="n"/>
-      <c r="P19" s="5" t="n"/>
-      <c r="Q19" s="5" t="n"/>
-      <c r="R19" s="5" t="n"/>
-      <c r="S19" s="5" t="n"/>
-      <c r="T19" s="5" t="n"/>
-      <c r="U19" s="5" t="n"/>
+      <c r="C20" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" s="7" t="n"/>
+      <c r="H20" s="10" t="n"/>
+      <c r="I20" s="11" t="n"/>
+      <c r="J20" s="11" t="n"/>
+      <c r="K20" s="6" t="n"/>
+      <c r="L20" s="6" t="n"/>
+      <c r="M20" s="6" t="n"/>
+      <c r="N20" s="6" t="n"/>
+      <c r="O20" s="6" t="n"/>
+      <c r="P20" s="6" t="n"/>
+      <c r="Q20" s="6" t="n"/>
+      <c r="R20" s="6" t="n"/>
+      <c r="S20" s="6" t="n"/>
+      <c r="T20" s="6" t="n"/>
+      <c r="U20" s="6" t="n"/>
     </row>
-    <row customHeight="true" hidden="false" ht="134" outlineLevel="0" r="20">
-      <c r="A20" s="6" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="7" t="s">
+    <row customHeight="true" hidden="false" ht="120.9677734375" outlineLevel="0" r="21">
+      <c r="A21" s="7" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G20" s="6" t="n"/>
-      <c r="H20" s="6" t="n"/>
-      <c r="I20" s="9" t="n"/>
-      <c r="J20" s="9" t="n"/>
-      <c r="K20" s="5" t="n"/>
-      <c r="L20" s="5" t="n"/>
-      <c r="M20" s="5" t="n"/>
-      <c r="N20" s="5" t="n"/>
-      <c r="O20" s="5" t="n"/>
-      <c r="P20" s="5" t="n"/>
-      <c r="Q20" s="5" t="n"/>
-      <c r="R20" s="5" t="n"/>
-      <c r="S20" s="5" t="n"/>
-      <c r="T20" s="5" t="n"/>
-      <c r="U20" s="5" t="n"/>
+      <c r="C21" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="7" t="n"/>
+      <c r="H21" s="10" t="n"/>
+      <c r="I21" s="11" t="n"/>
+      <c r="J21" s="11" t="n"/>
+      <c r="K21" s="6" t="n"/>
+      <c r="L21" s="6" t="n"/>
+      <c r="M21" s="6" t="n"/>
+      <c r="N21" s="6" t="n"/>
+      <c r="O21" s="6" t="n"/>
+      <c r="P21" s="6" t="n"/>
+      <c r="Q21" s="6" t="n"/>
+      <c r="R21" s="6" t="n"/>
+      <c r="S21" s="6" t="n"/>
+      <c r="T21" s="6" t="n"/>
+      <c r="U21" s="6" t="n"/>
     </row>
-    <row customHeight="true" hidden="false" ht="117.033203125" outlineLevel="0" r="21">
-      <c r="A21" s="6" t="n">
+    <row customHeight="true" hidden="false" ht="152.724853515625" outlineLevel="0" r="22">
+      <c r="A22" s="7" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E21" s="7" t="s">
+      <c r="F22" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="7" t="n"/>
+      <c r="H22" s="10" t="n"/>
+      <c r="I22" s="11" t="n"/>
+      <c r="J22" s="11" t="n"/>
+      <c r="K22" s="6" t="n"/>
+      <c r="L22" s="6" t="n"/>
+      <c r="M22" s="6" t="n"/>
+      <c r="N22" s="6" t="n"/>
+      <c r="O22" s="6" t="n"/>
+      <c r="P22" s="6" t="n"/>
+      <c r="Q22" s="6" t="n"/>
+      <c r="R22" s="6" t="n"/>
+      <c r="S22" s="6" t="n"/>
+      <c r="T22" s="6" t="n"/>
+      <c r="U22" s="6" t="n"/>
+    </row>
+    <row customHeight="true" hidden="false" ht="161.0341796875" outlineLevel="0" r="23">
+      <c r="A23" s="7" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="7" t="n"/>
+      <c r="H23" s="10" t="n"/>
+      <c r="I23" s="11" t="n"/>
+      <c r="J23" s="11" t="n"/>
+      <c r="K23" s="6" t="n"/>
+      <c r="L23" s="6" t="n"/>
+      <c r="M23" s="6" t="n"/>
+      <c r="N23" s="6" t="n"/>
+      <c r="O23" s="6" t="n"/>
+      <c r="P23" s="6" t="n"/>
+      <c r="Q23" s="6" t="n"/>
+      <c r="R23" s="6" t="n"/>
+      <c r="S23" s="6" t="n"/>
+      <c r="T23" s="6" t="n"/>
+      <c r="U23" s="6" t="n"/>
+    </row>
+    <row customHeight="true" hidden="false" ht="145.161376953125" outlineLevel="0" r="24">
+      <c r="A24" s="7" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="6" t="n"/>
-      <c r="H21" s="6" t="n"/>
-      <c r="I21" s="9" t="n"/>
-      <c r="J21" s="9" t="n"/>
-      <c r="K21" s="5" t="n"/>
-      <c r="L21" s="5" t="n"/>
-      <c r="M21" s="5" t="n"/>
-      <c r="N21" s="5" t="n"/>
-      <c r="O21" s="5" t="n"/>
-      <c r="P21" s="5" t="n"/>
-      <c r="Q21" s="5" t="n"/>
-      <c r="R21" s="5" t="n"/>
-      <c r="S21" s="5" t="n"/>
-      <c r="T21" s="5" t="n"/>
-      <c r="U21" s="5" t="n"/>
-    </row>
-    <row customHeight="true" hidden="false" ht="106" outlineLevel="0" r="22">
-      <c r="A22" s="6" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" s="6" t="n"/>
-      <c r="H22" s="6" t="n"/>
-      <c r="I22" s="9" t="n"/>
-      <c r="J22" s="9" t="n"/>
-      <c r="K22" s="5" t="n"/>
-      <c r="L22" s="5" t="n"/>
-      <c r="M22" s="5" t="n"/>
-      <c r="N22" s="5" t="n"/>
-      <c r="O22" s="5" t="n"/>
-      <c r="P22" s="5" t="n"/>
-      <c r="Q22" s="5" t="n"/>
-      <c r="R22" s="5" t="n"/>
-      <c r="S22" s="5" t="n"/>
-      <c r="T22" s="5" t="n"/>
-      <c r="U22" s="5" t="n"/>
-    </row>
-    <row customHeight="true" hidden="false" ht="130.033203125" outlineLevel="0" r="23">
-      <c r="A23" s="6" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" s="6" t="n"/>
-      <c r="H23" s="6" t="n"/>
-      <c r="I23" s="9" t="n"/>
-      <c r="J23" s="9" t="n"/>
-      <c r="K23" s="5" t="n"/>
-      <c r="L23" s="5" t="n"/>
-      <c r="M23" s="5" t="n"/>
-      <c r="N23" s="5" t="n"/>
-      <c r="O23" s="5" t="n"/>
-      <c r="P23" s="5" t="n"/>
-      <c r="Q23" s="5" t="n"/>
-      <c r="R23" s="5" t="n"/>
-      <c r="S23" s="5" t="n"/>
-      <c r="T23" s="5" t="n"/>
-      <c r="U23" s="5" t="n"/>
-    </row>
-    <row customHeight="true" hidden="false" ht="103.413330078125" outlineLevel="0" r="24">
-      <c r="A24" s="6" t="n">
-        <v>23</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="12" t="n"/>
-      <c r="I24" s="5" t="n"/>
-      <c r="J24" s="5" t="n"/>
-      <c r="K24" s="5" t="n"/>
-      <c r="L24" s="5" t="n"/>
-      <c r="M24" s="5" t="n"/>
-      <c r="N24" s="5" t="n"/>
-      <c r="O24" s="5" t="n"/>
-      <c r="P24" s="5" t="n"/>
-      <c r="Q24" s="5" t="n"/>
-      <c r="R24" s="5" t="n"/>
-      <c r="S24" s="5" t="n"/>
-      <c r="T24" s="5" t="n"/>
-      <c r="U24" s="5" t="n"/>
+      <c r="G24" s="14" t="n"/>
+      <c r="H24" s="15" t="n"/>
+      <c r="I24" s="6" t="n"/>
+      <c r="J24" s="6" t="n"/>
+      <c r="K24" s="6" t="n"/>
+      <c r="L24" s="6" t="n"/>
+      <c r="M24" s="6" t="n"/>
+      <c r="N24" s="6" t="n"/>
+      <c r="O24" s="6" t="n"/>
+      <c r="P24" s="6" t="n"/>
+      <c r="Q24" s="6" t="n"/>
+      <c r="R24" s="6" t="n"/>
+      <c r="S24" s="6" t="n"/>
+      <c r="T24" s="6" t="n"/>
+      <c r="U24" s="6" t="n"/>
     </row>
     <row customHeight="true" hidden="false" ht="135.619873046875" outlineLevel="0" r="25">
-      <c r="A25" s="6" t="n">
+      <c r="A25" s="7" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="D25" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="E25" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="14" t="n"/>
+      <c r="H25" s="15" t="n"/>
+      <c r="I25" s="6" t="n"/>
+      <c r="J25" s="6" t="n"/>
+      <c r="K25" s="6" t="n"/>
+      <c r="L25" s="6" t="n"/>
+      <c r="M25" s="6" t="n"/>
+      <c r="N25" s="6" t="n"/>
+      <c r="O25" s="6" t="n"/>
+      <c r="P25" s="6" t="n"/>
+      <c r="Q25" s="6" t="n"/>
+      <c r="R25" s="6" t="n"/>
+      <c r="S25" s="6" t="n"/>
+      <c r="T25" s="6" t="n"/>
+      <c r="U25" s="6" t="n"/>
+    </row>
+    <row customHeight="true" hidden="false" ht="157.87890625" outlineLevel="0" r="26">
+      <c r="A26" s="7" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="12" t="n"/>
-      <c r="I25" s="5" t="n"/>
-      <c r="J25" s="5" t="n"/>
-      <c r="K25" s="5" t="n"/>
-      <c r="L25" s="5" t="n"/>
-      <c r="M25" s="5" t="n"/>
-      <c r="N25" s="5" t="n"/>
-      <c r="O25" s="5" t="n"/>
-      <c r="P25" s="5" t="n"/>
-      <c r="Q25" s="5" t="n"/>
-      <c r="R25" s="5" t="n"/>
-      <c r="S25" s="5" t="n"/>
-      <c r="T25" s="5" t="n"/>
-      <c r="U25" s="5" t="n"/>
-    </row>
-    <row outlineLevel="0" r="26">
-      <c r="A26" s="13" t="n"/>
-      <c r="B26" s="14" t="n"/>
-      <c r="C26" s="14" t="n"/>
-      <c r="D26" s="15" t="n"/>
-      <c r="E26" s="15" t="n"/>
-      <c r="F26" s="15" t="n"/>
-      <c r="G26" s="5" t="n"/>
-      <c r="H26" s="5" t="n"/>
-      <c r="I26" s="5" t="n"/>
-      <c r="J26" s="5" t="n"/>
-      <c r="K26" s="5" t="n"/>
-      <c r="L26" s="5" t="n"/>
-      <c r="M26" s="5" t="n"/>
-      <c r="N26" s="5" t="n"/>
-      <c r="O26" s="5" t="n"/>
-      <c r="P26" s="5" t="n"/>
-      <c r="Q26" s="5" t="n"/>
-      <c r="R26" s="5" t="n"/>
-      <c r="S26" s="5" t="n"/>
-      <c r="T26" s="5" t="n"/>
-      <c r="U26" s="5" t="n"/>
+      <c r="C26" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="7" t="n"/>
+      <c r="H26" s="15" t="n"/>
+      <c r="I26" s="6" t="n"/>
+      <c r="J26" s="6" t="n"/>
+      <c r="K26" s="6" t="n"/>
+      <c r="L26" s="6" t="n"/>
+      <c r="M26" s="6" t="n"/>
+      <c r="N26" s="6" t="n"/>
+      <c r="O26" s="6" t="n"/>
+      <c r="P26" s="6" t="n"/>
+      <c r="Q26" s="6" t="n"/>
+      <c r="R26" s="6" t="n"/>
+      <c r="S26" s="6" t="n"/>
+      <c r="T26" s="6" t="n"/>
+      <c r="U26" s="6" t="n"/>
     </row>
     <row outlineLevel="0" r="27">
-      <c r="A27" s="16" t="n"/>
-      <c r="B27" s="17" t="n"/>
-      <c r="C27" s="17" t="n"/>
-      <c r="D27" s="15" t="n"/>
-      <c r="E27" s="15" t="n"/>
-      <c r="F27" s="15" t="n"/>
-      <c r="G27" s="5" t="n"/>
-      <c r="H27" s="5" t="n"/>
-      <c r="I27" s="5" t="n"/>
-      <c r="J27" s="5" t="n"/>
-      <c r="K27" s="5" t="n"/>
-      <c r="L27" s="5" t="n"/>
-      <c r="M27" s="5" t="n"/>
-      <c r="N27" s="5" t="n"/>
-      <c r="O27" s="5" t="n"/>
-      <c r="P27" s="5" t="n"/>
-      <c r="Q27" s="5" t="n"/>
-      <c r="R27" s="5" t="n"/>
-      <c r="S27" s="5" t="n"/>
-      <c r="T27" s="5" t="n"/>
-      <c r="U27" s="5" t="n"/>
+      <c r="A27" s="11" t="n"/>
+      <c r="B27" s="16" t="n"/>
+      <c r="C27" s="16" t="n"/>
+      <c r="D27" s="16" t="n"/>
+      <c r="E27" s="16" t="n"/>
+      <c r="F27" s="16" t="n"/>
+      <c r="G27" s="6" t="n"/>
+      <c r="H27" s="17" t="n"/>
+      <c r="I27" s="6" t="n"/>
+      <c r="J27" s="6" t="n"/>
+      <c r="K27" s="6" t="n"/>
+      <c r="L27" s="6" t="n"/>
+      <c r="M27" s="6" t="n"/>
+      <c r="N27" s="6" t="n"/>
+      <c r="O27" s="6" t="n"/>
+      <c r="P27" s="6" t="n"/>
+      <c r="Q27" s="6" t="n"/>
+      <c r="R27" s="6" t="n"/>
+      <c r="S27" s="6" t="n"/>
+      <c r="T27" s="6" t="n"/>
+      <c r="U27" s="6" t="n"/>
     </row>
     <row outlineLevel="0" r="28">
-      <c r="A28" s="16" t="n"/>
-      <c r="B28" s="17" t="n"/>
-      <c r="C28" s="17" t="n"/>
-      <c r="D28" s="15" t="n"/>
-      <c r="E28" s="15" t="n"/>
-      <c r="F28" s="15" t="n"/>
-      <c r="G28" s="5" t="n"/>
-      <c r="H28" s="5" t="n"/>
-      <c r="I28" s="5" t="n"/>
-      <c r="J28" s="5" t="n"/>
-      <c r="K28" s="5" t="n"/>
-      <c r="L28" s="5" t="n"/>
-      <c r="M28" s="5" t="n"/>
-      <c r="N28" s="5" t="n"/>
-      <c r="O28" s="5" t="n"/>
-      <c r="P28" s="5" t="n"/>
-      <c r="Q28" s="5" t="n"/>
-      <c r="R28" s="5" t="n"/>
-      <c r="S28" s="5" t="n"/>
-      <c r="T28" s="5" t="n"/>
-      <c r="U28" s="5" t="n"/>
+      <c r="A28" s="11" t="n"/>
+      <c r="B28" s="16" t="n"/>
+      <c r="C28" s="16" t="n"/>
+      <c r="D28" s="16" t="n"/>
+      <c r="E28" s="16" t="n"/>
+      <c r="F28" s="16" t="n"/>
+      <c r="G28" s="6" t="n"/>
+      <c r="H28" s="17" t="n"/>
+      <c r="I28" s="6" t="n"/>
+      <c r="J28" s="6" t="n"/>
+      <c r="K28" s="6" t="n"/>
+      <c r="L28" s="6" t="n"/>
+      <c r="M28" s="6" t="n"/>
+      <c r="N28" s="6" t="n"/>
+      <c r="O28" s="6" t="n"/>
+      <c r="P28" s="6" t="n"/>
+      <c r="Q28" s="6" t="n"/>
+      <c r="R28" s="6" t="n"/>
+      <c r="S28" s="6" t="n"/>
+      <c r="T28" s="6" t="n"/>
+      <c r="U28" s="6" t="n"/>
     </row>
     <row outlineLevel="0" r="29">
-      <c r="A29" s="16" t="n"/>
-      <c r="B29" s="17" t="n"/>
-      <c r="C29" s="17" t="n"/>
-      <c r="D29" s="15" t="n"/>
-      <c r="E29" s="15" t="n"/>
-      <c r="F29" s="15" t="n"/>
-      <c r="G29" s="5" t="n"/>
-      <c r="H29" s="5" t="n"/>
-      <c r="I29" s="5" t="n"/>
-      <c r="J29" s="5" t="n"/>
-      <c r="K29" s="5" t="n"/>
-      <c r="L29" s="5" t="n"/>
-      <c r="M29" s="5" t="n"/>
-      <c r="N29" s="5" t="n"/>
-      <c r="O29" s="5" t="n"/>
-      <c r="P29" s="5" t="n"/>
-      <c r="Q29" s="5" t="n"/>
-      <c r="R29" s="5" t="n"/>
-      <c r="S29" s="5" t="n"/>
-      <c r="T29" s="5" t="n"/>
-      <c r="U29" s="5" t="n"/>
+      <c r="A29" s="11" t="n"/>
+      <c r="B29" s="16" t="n"/>
+      <c r="C29" s="16" t="n"/>
+      <c r="D29" s="16" t="n"/>
+      <c r="E29" s="16" t="n"/>
+      <c r="F29" s="16" t="n"/>
+      <c r="G29" s="6" t="n"/>
+      <c r="H29" s="17" t="n"/>
+      <c r="I29" s="6" t="n"/>
+      <c r="J29" s="6" t="n"/>
+      <c r="K29" s="6" t="n"/>
+      <c r="L29" s="6" t="n"/>
+      <c r="M29" s="6" t="n"/>
+      <c r="N29" s="6" t="n"/>
+      <c r="O29" s="6" t="n"/>
+      <c r="P29" s="6" t="n"/>
+      <c r="Q29" s="6" t="n"/>
+      <c r="R29" s="6" t="n"/>
+      <c r="S29" s="6" t="n"/>
+      <c r="T29" s="6" t="n"/>
+      <c r="U29" s="6" t="n"/>
     </row>
     <row outlineLevel="0" r="30">
-      <c r="A30" s="16" t="n"/>
-      <c r="B30" s="17" t="n"/>
-      <c r="C30" s="17" t="n"/>
-      <c r="D30" s="15" t="n"/>
-      <c r="E30" s="15" t="n"/>
-      <c r="F30" s="15" t="n"/>
-      <c r="G30" s="5" t="n"/>
-      <c r="H30" s="5" t="n"/>
-      <c r="I30" s="5" t="n"/>
-      <c r="J30" s="5" t="n"/>
-      <c r="K30" s="5" t="n"/>
-      <c r="L30" s="5" t="n"/>
-      <c r="M30" s="5" t="n"/>
-      <c r="N30" s="5" t="n"/>
-      <c r="O30" s="5" t="n"/>
-      <c r="P30" s="5" t="n"/>
-      <c r="Q30" s="5" t="n"/>
-      <c r="R30" s="5" t="n"/>
-      <c r="S30" s="5" t="n"/>
-      <c r="T30" s="5" t="n"/>
-      <c r="U30" s="5" t="n"/>
+      <c r="A30" s="11" t="n"/>
+      <c r="B30" s="16" t="n"/>
+      <c r="C30" s="16" t="n"/>
+      <c r="D30" s="16" t="n"/>
+      <c r="E30" s="16" t="n"/>
+      <c r="F30" s="16" t="n"/>
+      <c r="G30" s="6" t="n"/>
+      <c r="H30" s="17" t="n"/>
+      <c r="I30" s="6" t="n"/>
+      <c r="J30" s="6" t="n"/>
+      <c r="K30" s="6" t="n"/>
+      <c r="L30" s="6" t="n"/>
+      <c r="M30" s="6" t="n"/>
+      <c r="N30" s="6" t="n"/>
+      <c r="O30" s="6" t="n"/>
+      <c r="P30" s="6" t="n"/>
+      <c r="Q30" s="6" t="n"/>
+      <c r="R30" s="6" t="n"/>
+      <c r="S30" s="6" t="n"/>
+      <c r="T30" s="6" t="n"/>
+      <c r="U30" s="6" t="n"/>
     </row>
     <row outlineLevel="0" r="31">
-      <c r="A31" s="16" t="n"/>
-      <c r="B31" s="17" t="n"/>
-      <c r="C31" s="17" t="n"/>
-      <c r="D31" s="15" t="n"/>
-      <c r="E31" s="15" t="n"/>
-      <c r="F31" s="15" t="n"/>
-      <c r="G31" s="5" t="n"/>
-      <c r="H31" s="5" t="n"/>
-      <c r="I31" s="5" t="n"/>
-      <c r="J31" s="5" t="n"/>
-      <c r="K31" s="5" t="n"/>
-      <c r="L31" s="5" t="n"/>
-      <c r="M31" s="5" t="n"/>
-      <c r="N31" s="5" t="n"/>
-      <c r="O31" s="5" t="n"/>
-      <c r="P31" s="5" t="n"/>
-      <c r="Q31" s="5" t="n"/>
-      <c r="R31" s="5" t="n"/>
-      <c r="S31" s="5" t="n"/>
-      <c r="T31" s="5" t="n"/>
-      <c r="U31" s="5" t="n"/>
+      <c r="A31" s="11" t="n"/>
+      <c r="B31" s="16" t="n"/>
+      <c r="C31" s="16" t="n"/>
+      <c r="D31" s="16" t="n"/>
+      <c r="E31" s="16" t="n"/>
+      <c r="F31" s="16" t="n"/>
+      <c r="G31" s="6" t="n"/>
+      <c r="H31" s="17" t="n"/>
+      <c r="I31" s="6" t="n"/>
+      <c r="J31" s="6" t="n"/>
+      <c r="K31" s="6" t="n"/>
+      <c r="L31" s="6" t="n"/>
+      <c r="M31" s="6" t="n"/>
+      <c r="N31" s="6" t="n"/>
+      <c r="O31" s="6" t="n"/>
+      <c r="P31" s="6" t="n"/>
+      <c r="Q31" s="6" t="n"/>
+      <c r="R31" s="6" t="n"/>
+      <c r="S31" s="6" t="n"/>
+      <c r="T31" s="6" t="n"/>
+      <c r="U31" s="6" t="n"/>
     </row>
     <row outlineLevel="0" r="32">
-      <c r="A32" s="16" t="n"/>
-      <c r="B32" s="17" t="n"/>
-      <c r="C32" s="17" t="n"/>
-      <c r="D32" s="15" t="n"/>
-      <c r="E32" s="15" t="n"/>
-      <c r="F32" s="15" t="n"/>
-      <c r="G32" s="5" t="n"/>
-      <c r="H32" s="5" t="n"/>
-      <c r="I32" s="5" t="n"/>
-      <c r="J32" s="5" t="n"/>
-      <c r="K32" s="5" t="n"/>
-      <c r="L32" s="5" t="n"/>
-      <c r="M32" s="5" t="n"/>
-      <c r="N32" s="5" t="n"/>
-      <c r="O32" s="5" t="n"/>
-      <c r="P32" s="5" t="n"/>
-      <c r="Q32" s="5" t="n"/>
-      <c r="R32" s="5" t="n"/>
-      <c r="S32" s="5" t="n"/>
-      <c r="T32" s="5" t="n"/>
-      <c r="U32" s="5" t="n"/>
+      <c r="A32" s="11" t="n"/>
+      <c r="B32" s="16" t="n"/>
+      <c r="C32" s="16" t="n"/>
+      <c r="D32" s="16" t="n"/>
+      <c r="E32" s="16" t="n"/>
+      <c r="F32" s="16" t="n"/>
+      <c r="G32" s="6" t="n"/>
+      <c r="H32" s="17" t="n"/>
+      <c r="I32" s="6" t="n"/>
+      <c r="J32" s="6" t="n"/>
+      <c r="K32" s="6" t="n"/>
+      <c r="L32" s="6" t="n"/>
+      <c r="M32" s="6" t="n"/>
+      <c r="N32" s="6" t="n"/>
+      <c r="O32" s="6" t="n"/>
+      <c r="P32" s="6" t="n"/>
+      <c r="Q32" s="6" t="n"/>
+      <c r="R32" s="6" t="n"/>
+      <c r="S32" s="6" t="n"/>
+      <c r="T32" s="6" t="n"/>
+      <c r="U32" s="6" t="n"/>
     </row>
     <row outlineLevel="0" r="33">
-      <c r="A33" s="16" t="n"/>
-      <c r="B33" s="17" t="n"/>
-      <c r="C33" s="17" t="n"/>
-      <c r="D33" s="15" t="n"/>
-      <c r="E33" s="15" t="n"/>
-      <c r="F33" s="15" t="n"/>
-      <c r="G33" s="5" t="n"/>
-      <c r="H33" s="5" t="n"/>
-      <c r="I33" s="5" t="n"/>
-      <c r="J33" s="5" t="n"/>
-      <c r="K33" s="5" t="n"/>
-      <c r="L33" s="5" t="n"/>
-      <c r="M33" s="5" t="n"/>
-      <c r="N33" s="5" t="n"/>
-      <c r="O33" s="5" t="n"/>
-      <c r="P33" s="5" t="n"/>
-      <c r="Q33" s="5" t="n"/>
-      <c r="R33" s="5" t="n"/>
-      <c r="S33" s="5" t="n"/>
-      <c r="T33" s="5" t="n"/>
-      <c r="U33" s="5" t="n"/>
+      <c r="A33" s="11" t="n"/>
+      <c r="B33" s="16" t="n"/>
+      <c r="C33" s="16" t="n"/>
+      <c r="D33" s="16" t="n"/>
+      <c r="E33" s="16" t="n"/>
+      <c r="F33" s="16" t="n"/>
+      <c r="G33" s="6" t="n"/>
+      <c r="H33" s="17" t="n"/>
+      <c r="I33" s="6" t="n"/>
+      <c r="J33" s="6" t="n"/>
+      <c r="K33" s="6" t="n"/>
+      <c r="L33" s="6" t="n"/>
+      <c r="M33" s="6" t="n"/>
+      <c r="N33" s="6" t="n"/>
+      <c r="O33" s="6" t="n"/>
+      <c r="P33" s="6" t="n"/>
+      <c r="Q33" s="6" t="n"/>
+      <c r="R33" s="6" t="n"/>
+      <c r="S33" s="6" t="n"/>
+      <c r="T33" s="6" t="n"/>
+      <c r="U33" s="6" t="n"/>
     </row>
     <row outlineLevel="0" r="34">
-      <c r="A34" s="16" t="n"/>
-      <c r="B34" s="17" t="n"/>
-      <c r="C34" s="17" t="n"/>
-      <c r="D34" s="15" t="n"/>
-      <c r="E34" s="15" t="n"/>
-      <c r="F34" s="15" t="n"/>
-      <c r="G34" s="5" t="n"/>
-      <c r="H34" s="5" t="n"/>
-      <c r="I34" s="5" t="n"/>
-      <c r="J34" s="5" t="n"/>
-      <c r="K34" s="5" t="n"/>
-      <c r="L34" s="5" t="n"/>
-      <c r="M34" s="5" t="n"/>
-      <c r="N34" s="5" t="n"/>
-      <c r="O34" s="5" t="n"/>
-      <c r="P34" s="5" t="n"/>
-      <c r="Q34" s="5" t="n"/>
-      <c r="R34" s="5" t="n"/>
-      <c r="S34" s="5" t="n"/>
-      <c r="T34" s="5" t="n"/>
-      <c r="U34" s="5" t="n"/>
+      <c r="A34" s="11" t="n"/>
+      <c r="B34" s="16" t="n"/>
+      <c r="C34" s="16" t="n"/>
+      <c r="D34" s="16" t="n"/>
+      <c r="E34" s="16" t="n"/>
+      <c r="F34" s="16" t="n"/>
+      <c r="G34" s="6" t="n"/>
+      <c r="H34" s="17" t="n"/>
+      <c r="I34" s="6" t="n"/>
+      <c r="J34" s="6" t="n"/>
+      <c r="K34" s="6" t="n"/>
+      <c r="L34" s="6" t="n"/>
+      <c r="M34" s="6" t="n"/>
+      <c r="N34" s="6" t="n"/>
+      <c r="O34" s="6" t="n"/>
+      <c r="P34" s="6" t="n"/>
+      <c r="Q34" s="6" t="n"/>
+      <c r="R34" s="6" t="n"/>
+      <c r="S34" s="6" t="n"/>
+      <c r="T34" s="6" t="n"/>
+      <c r="U34" s="6" t="n"/>
     </row>
     <row outlineLevel="0" r="35">
-      <c r="A35" s="16" t="n"/>
-      <c r="B35" s="17" t="n"/>
-      <c r="C35" s="17" t="n"/>
-      <c r="D35" s="15" t="n"/>
-      <c r="E35" s="15" t="n"/>
-      <c r="F35" s="15" t="n"/>
-      <c r="G35" s="5" t="n"/>
-      <c r="H35" s="5" t="n"/>
-      <c r="I35" s="5" t="n"/>
-      <c r="J35" s="5" t="n"/>
-      <c r="K35" s="5" t="n"/>
-      <c r="L35" s="5" t="n"/>
-      <c r="M35" s="5" t="n"/>
-      <c r="N35" s="5" t="n"/>
-      <c r="O35" s="5" t="n"/>
-      <c r="P35" s="5" t="n"/>
-      <c r="Q35" s="5" t="n"/>
-      <c r="R35" s="5" t="n"/>
-      <c r="S35" s="5" t="n"/>
-      <c r="T35" s="5" t="n"/>
-      <c r="U35" s="5" t="n"/>
+      <c r="A35" s="11" t="n"/>
+      <c r="B35" s="16" t="n"/>
+      <c r="C35" s="16" t="n"/>
+      <c r="D35" s="16" t="n"/>
+      <c r="E35" s="16" t="n"/>
+      <c r="F35" s="16" t="n"/>
+      <c r="G35" s="6" t="n"/>
+      <c r="H35" s="17" t="n"/>
+      <c r="I35" s="6" t="n"/>
+      <c r="J35" s="6" t="n"/>
+      <c r="K35" s="6" t="n"/>
+      <c r="L35" s="6" t="n"/>
+      <c r="M35" s="6" t="n"/>
+      <c r="N35" s="6" t="n"/>
+      <c r="O35" s="6" t="n"/>
+      <c r="P35" s="6" t="n"/>
+      <c r="Q35" s="6" t="n"/>
+      <c r="R35" s="6" t="n"/>
+      <c r="S35" s="6" t="n"/>
+      <c r="T35" s="6" t="n"/>
+      <c r="U35" s="6" t="n"/>
     </row>
     <row outlineLevel="0" r="36">
-      <c r="A36" s="16" t="n"/>
-      <c r="B36" s="17" t="n"/>
-      <c r="C36" s="17" t="n"/>
-      <c r="D36" s="15" t="n"/>
-      <c r="E36" s="15" t="n"/>
-      <c r="F36" s="15" t="n"/>
-      <c r="G36" s="5" t="n"/>
-      <c r="H36" s="5" t="n"/>
-      <c r="I36" s="5" t="n"/>
-      <c r="J36" s="5" t="n"/>
-      <c r="K36" s="5" t="n"/>
-      <c r="L36" s="5" t="n"/>
-      <c r="M36" s="5" t="n"/>
-      <c r="N36" s="5" t="n"/>
-      <c r="O36" s="5" t="n"/>
-      <c r="P36" s="5" t="n"/>
-      <c r="Q36" s="5" t="n"/>
-      <c r="R36" s="5" t="n"/>
-      <c r="S36" s="5" t="n"/>
-      <c r="T36" s="5" t="n"/>
-      <c r="U36" s="5" t="n"/>
+      <c r="A36" s="11" t="n"/>
+      <c r="B36" s="16" t="n"/>
+      <c r="C36" s="16" t="n"/>
+      <c r="D36" s="16" t="n"/>
+      <c r="E36" s="16" t="n"/>
+      <c r="F36" s="16" t="n"/>
+      <c r="G36" s="6" t="n"/>
+      <c r="H36" s="17" t="n"/>
+      <c r="I36" s="6" t="n"/>
+      <c r="J36" s="6" t="n"/>
+      <c r="K36" s="6" t="n"/>
+      <c r="L36" s="6" t="n"/>
+      <c r="M36" s="6" t="n"/>
+      <c r="N36" s="6" t="n"/>
+      <c r="O36" s="6" t="n"/>
+      <c r="P36" s="6" t="n"/>
+      <c r="Q36" s="6" t="n"/>
+      <c r="R36" s="6" t="n"/>
+      <c r="S36" s="6" t="n"/>
+      <c r="T36" s="6" t="n"/>
+      <c r="U36" s="6" t="n"/>
     </row>
     <row outlineLevel="0" r="37">
-      <c r="A37" s="16" t="n"/>
-      <c r="B37" s="17" t="n"/>
-      <c r="C37" s="17" t="n"/>
-      <c r="D37" s="15" t="n"/>
-      <c r="E37" s="15" t="n"/>
-      <c r="F37" s="15" t="n"/>
-      <c r="G37" s="5" t="n"/>
-      <c r="H37" s="5" t="n"/>
-      <c r="I37" s="5" t="n"/>
-      <c r="J37" s="5" t="n"/>
-      <c r="K37" s="5" t="n"/>
-      <c r="L37" s="5" t="n"/>
-      <c r="M37" s="5" t="n"/>
-      <c r="N37" s="5" t="n"/>
-      <c r="O37" s="5" t="n"/>
-      <c r="P37" s="5" t="n"/>
-      <c r="Q37" s="5" t="n"/>
-      <c r="R37" s="5" t="n"/>
-      <c r="S37" s="5" t="n"/>
-      <c r="T37" s="5" t="n"/>
-      <c r="U37" s="5" t="n"/>
+      <c r="A37" s="11" t="n"/>
+      <c r="B37" s="16" t="n"/>
+      <c r="C37" s="16" t="n"/>
+      <c r="D37" s="16" t="n"/>
+      <c r="E37" s="16" t="n"/>
+      <c r="F37" s="16" t="n"/>
+      <c r="G37" s="6" t="n"/>
+      <c r="H37" s="17" t="n"/>
+      <c r="I37" s="6" t="n"/>
+      <c r="J37" s="6" t="n"/>
+      <c r="K37" s="6" t="n"/>
+      <c r="L37" s="6" t="n"/>
+      <c r="M37" s="6" t="n"/>
+      <c r="N37" s="6" t="n"/>
+      <c r="O37" s="6" t="n"/>
+      <c r="P37" s="6" t="n"/>
+      <c r="Q37" s="6" t="n"/>
+      <c r="R37" s="6" t="n"/>
+      <c r="S37" s="6" t="n"/>
+      <c r="T37" s="6" t="n"/>
+      <c r="U37" s="6" t="n"/>
     </row>
     <row outlineLevel="0" r="38">
-      <c r="A38" s="16" t="n"/>
-      <c r="B38" s="17" t="n"/>
-      <c r="C38" s="17" t="n"/>
-      <c r="D38" s="15" t="n"/>
-      <c r="E38" s="15" t="n"/>
-      <c r="F38" s="15" t="n"/>
-      <c r="G38" s="5" t="n"/>
-      <c r="H38" s="5" t="n"/>
-      <c r="I38" s="5" t="n"/>
-      <c r="J38" s="5" t="n"/>
-      <c r="K38" s="5" t="n"/>
-      <c r="L38" s="5" t="n"/>
-      <c r="M38" s="5" t="n"/>
-      <c r="N38" s="5" t="n"/>
-      <c r="O38" s="5" t="n"/>
-      <c r="P38" s="5" t="n"/>
-      <c r="Q38" s="5" t="n"/>
-      <c r="R38" s="5" t="n"/>
-      <c r="S38" s="5" t="n"/>
-      <c r="T38" s="5" t="n"/>
-      <c r="U38" s="5" t="n"/>
+      <c r="A38" s="11" t="n"/>
+      <c r="B38" s="16" t="n"/>
+      <c r="C38" s="16" t="n"/>
+      <c r="D38" s="16" t="n"/>
+      <c r="E38" s="16" t="n"/>
+      <c r="F38" s="16" t="n"/>
+      <c r="G38" s="6" t="n"/>
+      <c r="H38" s="17" t="n"/>
+      <c r="I38" s="6" t="n"/>
+      <c r="J38" s="6" t="n"/>
+      <c r="K38" s="6" t="n"/>
+      <c r="L38" s="6" t="n"/>
+      <c r="M38" s="6" t="n"/>
+      <c r="N38" s="6" t="n"/>
+      <c r="O38" s="6" t="n"/>
+      <c r="P38" s="6" t="n"/>
+      <c r="Q38" s="6" t="n"/>
+      <c r="R38" s="6" t="n"/>
+      <c r="S38" s="6" t="n"/>
+      <c r="T38" s="6" t="n"/>
+      <c r="U38" s="6" t="n"/>
     </row>
     <row outlineLevel="0" r="39">
-      <c r="A39" s="16" t="n"/>
-      <c r="B39" s="17" t="n"/>
-      <c r="C39" s="17" t="n"/>
-      <c r="D39" s="15" t="n"/>
-      <c r="E39" s="15" t="n"/>
-      <c r="F39" s="15" t="n"/>
-      <c r="G39" s="5" t="n"/>
-      <c r="H39" s="5" t="n"/>
-      <c r="I39" s="5" t="n"/>
-      <c r="J39" s="5" t="n"/>
-      <c r="K39" s="5" t="n"/>
-      <c r="L39" s="5" t="n"/>
-      <c r="M39" s="5" t="n"/>
-      <c r="N39" s="5" t="n"/>
-      <c r="O39" s="5" t="n"/>
-      <c r="P39" s="5" t="n"/>
-      <c r="Q39" s="5" t="n"/>
-      <c r="R39" s="5" t="n"/>
-      <c r="S39" s="5" t="n"/>
-      <c r="T39" s="5" t="n"/>
-      <c r="U39" s="5" t="n"/>
+      <c r="A39" s="11" t="n"/>
+      <c r="B39" s="16" t="n"/>
+      <c r="C39" s="16" t="n"/>
+      <c r="D39" s="16" t="n"/>
+      <c r="E39" s="16" t="n"/>
+      <c r="F39" s="16" t="n"/>
+      <c r="G39" s="6" t="n"/>
+      <c r="H39" s="17" t="n"/>
+      <c r="I39" s="6" t="n"/>
+      <c r="J39" s="6" t="n"/>
+      <c r="K39" s="6" t="n"/>
+      <c r="L39" s="6" t="n"/>
+      <c r="M39" s="6" t="n"/>
+      <c r="N39" s="6" t="n"/>
+      <c r="O39" s="6" t="n"/>
+      <c r="P39" s="6" t="n"/>
+      <c r="Q39" s="6" t="n"/>
+      <c r="R39" s="6" t="n"/>
+      <c r="S39" s="6" t="n"/>
+      <c r="T39" s="6" t="n"/>
+      <c r="U39" s="6" t="n"/>
     </row>
     <row outlineLevel="0" r="40">
-      <c r="A40" s="16" t="n"/>
-      <c r="B40" s="17" t="n"/>
-      <c r="C40" s="17" t="n"/>
-      <c r="D40" s="15" t="n"/>
-      <c r="E40" s="15" t="n"/>
-      <c r="F40" s="15" t="n"/>
-      <c r="G40" s="5" t="n"/>
-      <c r="H40" s="5" t="n"/>
-      <c r="I40" s="5" t="n"/>
-      <c r="J40" s="5" t="n"/>
-      <c r="K40" s="5" t="n"/>
-      <c r="L40" s="5" t="n"/>
-      <c r="M40" s="5" t="n"/>
-      <c r="N40" s="5" t="n"/>
-      <c r="O40" s="5" t="n"/>
-      <c r="P40" s="5" t="n"/>
-      <c r="Q40" s="5" t="n"/>
-      <c r="R40" s="5" t="n"/>
-      <c r="S40" s="5" t="n"/>
-      <c r="T40" s="5" t="n"/>
-      <c r="U40" s="5" t="n"/>
+      <c r="A40" s="11" t="n"/>
+      <c r="B40" s="16" t="n"/>
+      <c r="C40" s="16" t="n"/>
+      <c r="D40" s="16" t="n"/>
+      <c r="E40" s="16" t="n"/>
+      <c r="F40" s="16" t="n"/>
+      <c r="G40" s="6" t="n"/>
+      <c r="H40" s="17" t="n"/>
+      <c r="I40" s="6" t="n"/>
+      <c r="J40" s="6" t="n"/>
+      <c r="K40" s="6" t="n"/>
+      <c r="L40" s="6" t="n"/>
+      <c r="M40" s="6" t="n"/>
+      <c r="N40" s="6" t="n"/>
+      <c r="O40" s="6" t="n"/>
+      <c r="P40" s="6" t="n"/>
+      <c r="Q40" s="6" t="n"/>
+      <c r="R40" s="6" t="n"/>
+      <c r="S40" s="6" t="n"/>
+      <c r="T40" s="6" t="n"/>
+      <c r="U40" s="6" t="n"/>
     </row>
     <row outlineLevel="0" r="41">
-      <c r="A41" s="16" t="n"/>
-      <c r="B41" s="17" t="n"/>
-      <c r="C41" s="17" t="n"/>
-      <c r="D41" s="15" t="n"/>
-      <c r="E41" s="15" t="n"/>
-      <c r="F41" s="15" t="n"/>
-      <c r="G41" s="5" t="n"/>
-      <c r="H41" s="5" t="n"/>
-      <c r="I41" s="5" t="n"/>
-      <c r="J41" s="5" t="n"/>
-      <c r="K41" s="5" t="n"/>
-      <c r="L41" s="5" t="n"/>
-      <c r="M41" s="5" t="n"/>
-      <c r="N41" s="5" t="n"/>
-      <c r="O41" s="5" t="n"/>
-      <c r="P41" s="5" t="n"/>
-      <c r="Q41" s="5" t="n"/>
-      <c r="R41" s="5" t="n"/>
-      <c r="S41" s="5" t="n"/>
-      <c r="T41" s="5" t="n"/>
-      <c r="U41" s="5" t="n"/>
+      <c r="A41" s="11" t="n"/>
+      <c r="B41" s="16" t="n"/>
+      <c r="C41" s="16" t="n"/>
+      <c r="D41" s="16" t="n"/>
+      <c r="E41" s="16" t="n"/>
+      <c r="F41" s="16" t="n"/>
+      <c r="G41" s="6" t="n"/>
+      <c r="H41" s="17" t="n"/>
+      <c r="I41" s="6" t="n"/>
+      <c r="J41" s="6" t="n"/>
+      <c r="K41" s="6" t="n"/>
+      <c r="L41" s="6" t="n"/>
+      <c r="M41" s="6" t="n"/>
+      <c r="N41" s="6" t="n"/>
+      <c r="O41" s="6" t="n"/>
+      <c r="P41" s="6" t="n"/>
+      <c r="Q41" s="6" t="n"/>
+      <c r="R41" s="6" t="n"/>
+      <c r="S41" s="6" t="n"/>
+      <c r="T41" s="6" t="n"/>
+      <c r="U41" s="6" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.300000011920929" header="0.300000011920929" left="0.25" right="0.25" top="0.75"/>
   <pageSetup fitToHeight="0" fitToWidth="0" orientation="landscape" paperHeight="279.3998mm" paperSize="1" paperWidth="215.8999mm" scale="100"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>